--- a/experiment_results/trajectory_2021-06-08T04:02:01.249307.xlsx
+++ b/experiment_results/trajectory_2021-06-08T04:02:01.249307.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="305">
   <si>
     <t xml:space="preserve">100 epochs, depths 1-25</t>
   </si>
@@ -924,6 +924,18 @@
   <si>
     <t xml:space="preserve">&lt;Genome {'input_shape': (3, 32, 32), 'output_feature_depth': 10, 'genes': [&lt;Gene {'node': &lt;CatNode {'input_shapes': [(3, 32, 32), (3, 32, 32)]}&gt;, 'input_indices': [-1, -1], 'input_shapes': [(3, 32, 32), (3, 32, 32)]}&gt;, &lt;Gene {'node': &lt;DepSepConvNode {'input_shapes': [(6, 3, 3)], '_DepSepConvNode__input_shape': (6, 3, 3), '_DepSepConvNode__output_feature_depth': 64, 'kernel_size': 5}&gt;, 'input_indices': [0], 'input_shapes': [(6, 3, 3)]}&gt;, &lt;Gene {'node': &lt;AvgPoolNode {'input_shapes': [(3, 32, 32)]}&gt;, 'input_indices': [-1], 'input_shapes': [(3, 32, 32)]}&gt;, &lt;Gene {'node': &lt;AvgPoolNode {'input_shapes': [(3, 16, 16)]}&gt;, 'input_indices': [2], 'input_shapes': [(3, 16, 16)]}&gt;, &lt;Gene {'node': &lt;MaxPoolNode {'input_shapes': [(6, 3, 3)]}&gt;, 'input_indices': [0], 'input_shapes': [(6, 3, 3)]}&gt;, &lt;Gene {'node': &lt;DepSepConvNode {'input_shapes': [(3, 32, 32)], '_DepSepConvNode__input_shape': (3, 32, 32), '_DepSepConvNode__output_feature_depth': 128, 'kernel_size': 3}&gt;, 'input_indices': [-1], 'input_shapes': [(3, 32, 32)]}&gt;, &lt;Gene {'node': &lt;AvgPoolNode {'input_shapes': [(3, 8, 8)]}&gt;, 'input_indices': [3], 'input_shapes': [(3, 8, 8)]}&gt;, &lt;Gene {'node': &lt;AvgPoolNode {'input_shapes': [(6, 1, 1)]}&gt;, 'input_indices': [4], 'input_shapes': [(6, 1, 1)]}&gt;, &lt;Gene {'node': &lt;CatNode {'input_shapes': [(3, 16, 16), (6, 1, 1)]}&gt;, 'input_indices': [2, 4], 'input_shapes': [(3, 16, 16), (6, 1, 1)]}&gt;, &lt;Gene {'node': &lt;MaxPoolNode {'input_shapes': [(128, 32, 32)]}&gt;, 'input_indices': [5], 'input_shapes': [(128, 32, 32)]}&gt;, &lt;Gene {'node': &lt;CatNode {'input_shapes': [(128, 16, 16), (6, 1, 1)]}&gt;, 'input_indices': [9, 4], 'input_shapes': [(128, 16, 16), (6, 1, 1)]}&gt;, &lt;Gene {'node': &lt;DepSepConvNode {'input_shapes': [(6, 1, 1)], '_DepSepConvNode__input_shape': (6, 1, 1), '_DepSepConvNode__output_feature_depth': 256, 'kernel_size': 3}&gt;, 'input_indices': [4], 'input_shapes': [(6, 1, 1)]}&gt;, &lt;Gene {'node': &lt;DepSepConvNode {'input_shapes': [(6, 1, 1)], '_DepSepConvNode__input_shape': (6, 1, 1), '_DepSepConvNode__output_feature_depth': 64, 'kernel_size': 5}&gt;, 'input_indices': [4], 'input_shapes': [(6, 1, 1)]}&gt;, &lt;Gene {'node': &lt;DepSepConvNode {'input_shapes': [(6, 3, 3)], '_DepSepConvNode__input_shape': (6, 3, 3), '_DepSepConvNode__output_feature_depth': 32, 'kernel_size': 5}&gt;, 'input_indices': [0], 'input_shapes': [(6, 3, 3)]}&gt;]}&gt;</t>
   </si>
+  <si>
+    <t xml:space="preserve">Average loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation to e100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation to v100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en/vn correlation</t>
+  </si>
 </sst>
 </file>
 
@@ -932,7 +944,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -952,6 +964,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1010,7 +1032,1168 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average loss (evolutionary set)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'trajectory_2021-06-08T04:02:01.249307'!$B$104:$CX$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5.00104165554047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.05526237607002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9451341187954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86813850998878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.80965878129005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76257805705071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.72386928081512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.69101013898849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6618836081028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6354889023304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.61117248654366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.58867657065392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5674979197979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.54745876550674</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.52813374817371</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.51003811717033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4930476307869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.47699446648359</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.46022053450346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.44453696280718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.42999295070767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.41591750770807</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.40219805724919</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.38868691787124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.37586899362504</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3634711015597</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.35172160942107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.33980890218169</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.32832683581859</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3168088112399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.30542954241857</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.29418135000393</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.28389088261873</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.27369826123118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2643006852176</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.25443156353198</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.24416729647666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.23378790135495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.22421478519682</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.21708600125276</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.20886060634162</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.19990502031054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.19105950335739</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.18207548172446</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.17358158890856</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.16581723340554</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.15889540780801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.15182088920148</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1463078561076</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.13909900548868</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.13273093669675</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.12393424170557</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.11456575593445</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1084915581299</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.10161408434389</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.09630338154035</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.08928287808434</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.08332882237039</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.07782928377506</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.07110464712488</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.06385767164291</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.05793775489903</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.05261367256055</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.04705170671223</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.04057420880767</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.03384165187133</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.02772833645809</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.02297365573701</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.01832813793211</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.01418032648042</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.01037502707914</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.00580276643741</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.00017333898461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99441638519289</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.990692773588817</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.987486285886262</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.981915465308703</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.978224817735609</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.975330627167132</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.971168904016376</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.965143472735072</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.961576890298165</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.959703714490752</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.95355472875759</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.951020388639299</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.949027940978412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.943032405484118</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.938473913066555</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.935683648823178</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.933535310801817</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.930183402440743</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.926611722369562</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.924770610479754</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.920054128457559</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.917170496590552</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.918403775872139</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.909616531533538</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.906047568401846</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.902334568701044</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.903173485425359</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.899429111055506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="43989956"/>
+        <c:axId val="1149649"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43989956"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Epochs of training</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149649"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1149649"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Average loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43989956"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average loss (validation set)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'trajectory_2021-06-08T04:02:01.249307'!$CY$104:$GU$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>4.90990340232849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0406375014782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.93644588589668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86576388716698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.81412642002106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.77384253501892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.74214203596115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.71623803019524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.69429038405418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.67528226256371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.65851444482803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.64361830115318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6304438149929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.61827425956726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.60740000963211</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.59809657216072</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.59027517437935</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.58363226532936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.57524051070213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.56852602720261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.56319763183594</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.55872952342033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.55348938584328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54996658086777</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.54605321884155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.54399938583374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.54126198291779</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.53805663347244</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.53586810112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.53439529538155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.53294046640396</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5318604183197</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.53147063851357</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.53102283358574</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.53132724642754</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.53229162693024</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.53164304614067</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.53024952054024</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.53044023633003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.53387222647667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.53610839247704</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.53592741131783</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.53687897086144</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.53715362071991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.53844190835953</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.53990414023399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.54350898385048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.54665274858475</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.55262956023216</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5550753068924</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.56039079785347</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.56292262911797</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.56041706562042</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.56466697216034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.56753095626831</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.57256430149078</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.57454233527184</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.57739841222763</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.58108902215958</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.58347497701645</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.58404267072678</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.58759813308716</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.59195417523384</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.59417078852654</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.59665149569511</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.59792283296585</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.60111027598381</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.60527183890343</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.60826123833656</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.61590581536293</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.62287546157837</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.62410436034203</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.62549131989479</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.62871977210045</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.63129636883736</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.63761802434921</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.63646160960197</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.64309389233589</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.64626737952232</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.65192176938057</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.65070077061653</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6534413087368</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.65972625494003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.65891216039658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6649246096611</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.67068941712379</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.66872043848038</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.67395741462708</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.67929059863091</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.68695979356766</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.68920184612274</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.69329026460648</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.6983682346344</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.69930497169495</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.70067439675331</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.70871563911438</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.70461698055267</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.70857004404068</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.71331299066544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7212818300724</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.72276515007019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="73264194"/>
+        <c:axId val="42317439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73264194"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42317439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42317439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73264194"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1100160</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="54360" y="17955720"/>
+        <a:ext cx="7809480" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1110960</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7874640" y="17910720"/>
+        <a:ext cx="9584640" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,10 +2201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:GU102"/>
+  <dimension ref="A1:GU109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GP119" activeCellId="0" sqref="GP119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -62755,6 +63938,2854 @@
         <v>1.41671180725098</v>
       </c>
     </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <f aca="false">AVERAGE(B3:B102)</f>
+        <v>5.00104165554047</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <f aca="false">AVERAGE(C3:C102)</f>
+        <v>2.05526237607002</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D102)</f>
+        <v>1.9451341187954</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">AVERAGE(E3:E102)</f>
+        <v>1.86813850998878</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F102)</f>
+        <v>1.80965878129005</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <f aca="false">AVERAGE(G3:G102)</f>
+        <v>1.76257805705071</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <f aca="false">AVERAGE(H3:H102)</f>
+        <v>1.72386928081512</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <f aca="false">AVERAGE(I3:I102)</f>
+        <v>1.69101013898849</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <f aca="false">AVERAGE(J3:J102)</f>
+        <v>1.6618836081028</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <f aca="false">AVERAGE(K3:K102)</f>
+        <v>1.6354889023304</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <f aca="false">AVERAGE(L3:L102)</f>
+        <v>1.61117248654366</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M102)</f>
+        <v>1.58867657065392</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <f aca="false">AVERAGE(N3:N102)</f>
+        <v>1.5674979197979</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <f aca="false">AVERAGE(O3:O102)</f>
+        <v>1.54745876550674</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <f aca="false">AVERAGE(P3:P102)</f>
+        <v>1.52813374817371</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <f aca="false">AVERAGE(Q3:Q102)</f>
+        <v>1.51003811717033</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <f aca="false">AVERAGE(R3:R102)</f>
+        <v>1.4930476307869</v>
+      </c>
+      <c r="S104" s="0" t="n">
+        <f aca="false">AVERAGE(S3:S102)</f>
+        <v>1.47699446648359</v>
+      </c>
+      <c r="T104" s="0" t="n">
+        <f aca="false">AVERAGE(T3:T102)</f>
+        <v>1.46022053450346</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <f aca="false">AVERAGE(U3:U102)</f>
+        <v>1.44453696280718</v>
+      </c>
+      <c r="V104" s="0" t="n">
+        <f aca="false">AVERAGE(V3:V102)</f>
+        <v>1.42999295070767</v>
+      </c>
+      <c r="W104" s="0" t="n">
+        <f aca="false">AVERAGE(W3:W102)</f>
+        <v>1.41591750770807</v>
+      </c>
+      <c r="X104" s="0" t="n">
+        <f aca="false">AVERAGE(X3:X102)</f>
+        <v>1.40219805724919</v>
+      </c>
+      <c r="Y104" s="0" t="n">
+        <f aca="false">AVERAGE(Y3:Y102)</f>
+        <v>1.38868691787124</v>
+      </c>
+      <c r="Z104" s="0" t="n">
+        <f aca="false">AVERAGE(Z3:Z102)</f>
+        <v>1.37586899362504</v>
+      </c>
+      <c r="AA104" s="0" t="n">
+        <f aca="false">AVERAGE(AA3:AA102)</f>
+        <v>1.3634711015597</v>
+      </c>
+      <c r="AB104" s="0" t="n">
+        <f aca="false">AVERAGE(AB3:AB102)</f>
+        <v>1.35172160942107</v>
+      </c>
+      <c r="AC104" s="0" t="n">
+        <f aca="false">AVERAGE(AC3:AC102)</f>
+        <v>1.33980890218169</v>
+      </c>
+      <c r="AD104" s="0" t="n">
+        <f aca="false">AVERAGE(AD3:AD102)</f>
+        <v>1.32832683581859</v>
+      </c>
+      <c r="AE104" s="0" t="n">
+        <f aca="false">AVERAGE(AE3:AE102)</f>
+        <v>1.3168088112399</v>
+      </c>
+      <c r="AF104" s="0" t="n">
+        <f aca="false">AVERAGE(AF3:AF102)</f>
+        <v>1.30542954241857</v>
+      </c>
+      <c r="AG104" s="0" t="n">
+        <f aca="false">AVERAGE(AG3:AG102)</f>
+        <v>1.29418135000393</v>
+      </c>
+      <c r="AH104" s="0" t="n">
+        <f aca="false">AVERAGE(AH3:AH102)</f>
+        <v>1.28389088261873</v>
+      </c>
+      <c r="AI104" s="0" t="n">
+        <f aca="false">AVERAGE(AI3:AI102)</f>
+        <v>1.27369826123118</v>
+      </c>
+      <c r="AJ104" s="0" t="n">
+        <f aca="false">AVERAGE(AJ3:AJ102)</f>
+        <v>1.2643006852176</v>
+      </c>
+      <c r="AK104" s="0" t="n">
+        <f aca="false">AVERAGE(AK3:AK102)</f>
+        <v>1.25443156353198</v>
+      </c>
+      <c r="AL104" s="0" t="n">
+        <f aca="false">AVERAGE(AL3:AL102)</f>
+        <v>1.24416729647666</v>
+      </c>
+      <c r="AM104" s="0" t="n">
+        <f aca="false">AVERAGE(AM3:AM102)</f>
+        <v>1.23378790135495</v>
+      </c>
+      <c r="AN104" s="0" t="n">
+        <f aca="false">AVERAGE(AN3:AN102)</f>
+        <v>1.22421478519682</v>
+      </c>
+      <c r="AO104" s="0" t="n">
+        <f aca="false">AVERAGE(AO3:AO102)</f>
+        <v>1.21708600125276</v>
+      </c>
+      <c r="AP104" s="0" t="n">
+        <f aca="false">AVERAGE(AP3:AP102)</f>
+        <v>1.20886060634162</v>
+      </c>
+      <c r="AQ104" s="0" t="n">
+        <f aca="false">AVERAGE(AQ3:AQ102)</f>
+        <v>1.19990502031054</v>
+      </c>
+      <c r="AR104" s="0" t="n">
+        <f aca="false">AVERAGE(AR3:AR102)</f>
+        <v>1.19105950335739</v>
+      </c>
+      <c r="AS104" s="0" t="n">
+        <f aca="false">AVERAGE(AS3:AS102)</f>
+        <v>1.18207548172446</v>
+      </c>
+      <c r="AT104" s="0" t="n">
+        <f aca="false">AVERAGE(AT3:AT102)</f>
+        <v>1.17358158890856</v>
+      </c>
+      <c r="AU104" s="0" t="n">
+        <f aca="false">AVERAGE(AU3:AU102)</f>
+        <v>1.16581723340554</v>
+      </c>
+      <c r="AV104" s="0" t="n">
+        <f aca="false">AVERAGE(AV3:AV102)</f>
+        <v>1.15889540780801</v>
+      </c>
+      <c r="AW104" s="0" t="n">
+        <f aca="false">AVERAGE(AW3:AW102)</f>
+        <v>1.15182088920148</v>
+      </c>
+      <c r="AX104" s="0" t="n">
+        <f aca="false">AVERAGE(AX3:AX102)</f>
+        <v>1.1463078561076</v>
+      </c>
+      <c r="AY104" s="0" t="n">
+        <f aca="false">AVERAGE(AY3:AY102)</f>
+        <v>1.13909900548868</v>
+      </c>
+      <c r="AZ104" s="0" t="n">
+        <f aca="false">AVERAGE(AZ3:AZ102)</f>
+        <v>1.13273093669675</v>
+      </c>
+      <c r="BA104" s="0" t="n">
+        <f aca="false">AVERAGE(BA3:BA102)</f>
+        <v>1.12393424170557</v>
+      </c>
+      <c r="BB104" s="0" t="n">
+        <f aca="false">AVERAGE(BB3:BB102)</f>
+        <v>1.11456575593445</v>
+      </c>
+      <c r="BC104" s="0" t="n">
+        <f aca="false">AVERAGE(BC3:BC102)</f>
+        <v>1.1084915581299</v>
+      </c>
+      <c r="BD104" s="0" t="n">
+        <f aca="false">AVERAGE(BD3:BD102)</f>
+        <v>1.10161408434389</v>
+      </c>
+      <c r="BE104" s="0" t="n">
+        <f aca="false">AVERAGE(BE3:BE102)</f>
+        <v>1.09630338154035</v>
+      </c>
+      <c r="BF104" s="0" t="n">
+        <f aca="false">AVERAGE(BF3:BF102)</f>
+        <v>1.08928287808434</v>
+      </c>
+      <c r="BG104" s="0" t="n">
+        <f aca="false">AVERAGE(BG3:BG102)</f>
+        <v>1.08332882237039</v>
+      </c>
+      <c r="BH104" s="0" t="n">
+        <f aca="false">AVERAGE(BH3:BH102)</f>
+        <v>1.07782928377506</v>
+      </c>
+      <c r="BI104" s="0" t="n">
+        <f aca="false">AVERAGE(BI3:BI102)</f>
+        <v>1.07110464712488</v>
+      </c>
+      <c r="BJ104" s="0" t="n">
+        <f aca="false">AVERAGE(BJ3:BJ102)</f>
+        <v>1.06385767164291</v>
+      </c>
+      <c r="BK104" s="0" t="n">
+        <f aca="false">AVERAGE(BK3:BK102)</f>
+        <v>1.05793775489903</v>
+      </c>
+      <c r="BL104" s="0" t="n">
+        <f aca="false">AVERAGE(BL3:BL102)</f>
+        <v>1.05261367256055</v>
+      </c>
+      <c r="BM104" s="0" t="n">
+        <f aca="false">AVERAGE(BM3:BM102)</f>
+        <v>1.04705170671223</v>
+      </c>
+      <c r="BN104" s="0" t="n">
+        <f aca="false">AVERAGE(BN3:BN102)</f>
+        <v>1.04057420880767</v>
+      </c>
+      <c r="BO104" s="0" t="n">
+        <f aca="false">AVERAGE(BO3:BO102)</f>
+        <v>1.03384165187133</v>
+      </c>
+      <c r="BP104" s="0" t="n">
+        <f aca="false">AVERAGE(BP3:BP102)</f>
+        <v>1.02772833645809</v>
+      </c>
+      <c r="BQ104" s="0" t="n">
+        <f aca="false">AVERAGE(BQ3:BQ102)</f>
+        <v>1.02297365573701</v>
+      </c>
+      <c r="BR104" s="0" t="n">
+        <f aca="false">AVERAGE(BR3:BR102)</f>
+        <v>1.01832813793211</v>
+      </c>
+      <c r="BS104" s="0" t="n">
+        <f aca="false">AVERAGE(BS3:BS102)</f>
+        <v>1.01418032648042</v>
+      </c>
+      <c r="BT104" s="0" t="n">
+        <f aca="false">AVERAGE(BT3:BT102)</f>
+        <v>1.01037502707914</v>
+      </c>
+      <c r="BU104" s="0" t="n">
+        <f aca="false">AVERAGE(BU3:BU102)</f>
+        <v>1.00580276643741</v>
+      </c>
+      <c r="BV104" s="0" t="n">
+        <f aca="false">AVERAGE(BV3:BV102)</f>
+        <v>1.00017333898461</v>
+      </c>
+      <c r="BW104" s="0" t="n">
+        <f aca="false">AVERAGE(BW3:BW102)</f>
+        <v>0.99441638519289</v>
+      </c>
+      <c r="BX104" s="0" t="n">
+        <f aca="false">AVERAGE(BX3:BX102)</f>
+        <v>0.990692773588817</v>
+      </c>
+      <c r="BY104" s="0" t="n">
+        <f aca="false">AVERAGE(BY3:BY102)</f>
+        <v>0.987486285886262</v>
+      </c>
+      <c r="BZ104" s="0" t="n">
+        <f aca="false">AVERAGE(BZ3:BZ102)</f>
+        <v>0.981915465308703</v>
+      </c>
+      <c r="CA104" s="0" t="n">
+        <f aca="false">AVERAGE(CA3:CA102)</f>
+        <v>0.978224817735609</v>
+      </c>
+      <c r="CB104" s="0" t="n">
+        <f aca="false">AVERAGE(CB3:CB102)</f>
+        <v>0.975330627167132</v>
+      </c>
+      <c r="CC104" s="0" t="n">
+        <f aca="false">AVERAGE(CC3:CC102)</f>
+        <v>0.971168904016376</v>
+      </c>
+      <c r="CD104" s="0" t="n">
+        <f aca="false">AVERAGE(CD3:CD102)</f>
+        <v>0.965143472735072</v>
+      </c>
+      <c r="CE104" s="0" t="n">
+        <f aca="false">AVERAGE(CE3:CE102)</f>
+        <v>0.961576890298165</v>
+      </c>
+      <c r="CF104" s="0" t="n">
+        <f aca="false">AVERAGE(CF3:CF102)</f>
+        <v>0.959703714490752</v>
+      </c>
+      <c r="CG104" s="0" t="n">
+        <f aca="false">AVERAGE(CG3:CG102)</f>
+        <v>0.95355472875759</v>
+      </c>
+      <c r="CH104" s="0" t="n">
+        <f aca="false">AVERAGE(CH3:CH102)</f>
+        <v>0.951020388639299</v>
+      </c>
+      <c r="CI104" s="0" t="n">
+        <f aca="false">AVERAGE(CI3:CI102)</f>
+        <v>0.949027940978412</v>
+      </c>
+      <c r="CJ104" s="0" t="n">
+        <f aca="false">AVERAGE(CJ3:CJ102)</f>
+        <v>0.943032405484118</v>
+      </c>
+      <c r="CK104" s="0" t="n">
+        <f aca="false">AVERAGE(CK3:CK102)</f>
+        <v>0.938473913066555</v>
+      </c>
+      <c r="CL104" s="0" t="n">
+        <f aca="false">AVERAGE(CL3:CL102)</f>
+        <v>0.935683648823178</v>
+      </c>
+      <c r="CM104" s="0" t="n">
+        <f aca="false">AVERAGE(CM3:CM102)</f>
+        <v>0.933535310801817</v>
+      </c>
+      <c r="CN104" s="0" t="n">
+        <f aca="false">AVERAGE(CN3:CN102)</f>
+        <v>0.930183402440743</v>
+      </c>
+      <c r="CO104" s="0" t="n">
+        <f aca="false">AVERAGE(CO3:CO102)</f>
+        <v>0.926611722369562</v>
+      </c>
+      <c r="CP104" s="0" t="n">
+        <f aca="false">AVERAGE(CP3:CP102)</f>
+        <v>0.924770610479754</v>
+      </c>
+      <c r="CQ104" s="0" t="n">
+        <f aca="false">AVERAGE(CQ3:CQ102)</f>
+        <v>0.920054128457559</v>
+      </c>
+      <c r="CR104" s="0" t="n">
+        <f aca="false">AVERAGE(CR3:CR102)</f>
+        <v>0.917170496590552</v>
+      </c>
+      <c r="CS104" s="0" t="n">
+        <f aca="false">AVERAGE(CS3:CS102)</f>
+        <v>0.918403775872139</v>
+      </c>
+      <c r="CT104" s="0" t="n">
+        <f aca="false">AVERAGE(CT3:CT102)</f>
+        <v>0.909616531533538</v>
+      </c>
+      <c r="CU104" s="0" t="n">
+        <f aca="false">AVERAGE(CU3:CU102)</f>
+        <v>0.906047568401846</v>
+      </c>
+      <c r="CV104" s="0" t="n">
+        <f aca="false">AVERAGE(CV3:CV102)</f>
+        <v>0.902334568701044</v>
+      </c>
+      <c r="CW104" s="0" t="n">
+        <f aca="false">AVERAGE(CW3:CW102)</f>
+        <v>0.903173485425359</v>
+      </c>
+      <c r="CX104" s="0" t="n">
+        <f aca="false">AVERAGE(CX3:CX102)</f>
+        <v>0.899429111055506</v>
+      </c>
+      <c r="CY104" s="0" t="n">
+        <f aca="false">AVERAGE(CY3:CY102)</f>
+        <v>4.90990340232849</v>
+      </c>
+      <c r="CZ104" s="0" t="n">
+        <f aca="false">AVERAGE(CZ3:CZ102)</f>
+        <v>2.0406375014782</v>
+      </c>
+      <c r="DA104" s="0" t="n">
+        <f aca="false">AVERAGE(DA3:DA102)</f>
+        <v>1.93644588589668</v>
+      </c>
+      <c r="DB104" s="0" t="n">
+        <f aca="false">AVERAGE(DB3:DB102)</f>
+        <v>1.86576388716698</v>
+      </c>
+      <c r="DC104" s="0" t="n">
+        <f aca="false">AVERAGE(DC3:DC102)</f>
+        <v>1.81412642002106</v>
+      </c>
+      <c r="DD104" s="0" t="n">
+        <f aca="false">AVERAGE(DD3:DD102)</f>
+        <v>1.77384253501892</v>
+      </c>
+      <c r="DE104" s="0" t="n">
+        <f aca="false">AVERAGE(DE3:DE102)</f>
+        <v>1.74214203596115</v>
+      </c>
+      <c r="DF104" s="0" t="n">
+        <f aca="false">AVERAGE(DF3:DF102)</f>
+        <v>1.71623803019524</v>
+      </c>
+      <c r="DG104" s="0" t="n">
+        <f aca="false">AVERAGE(DG3:DG102)</f>
+        <v>1.69429038405418</v>
+      </c>
+      <c r="DH104" s="0" t="n">
+        <f aca="false">AVERAGE(DH3:DH102)</f>
+        <v>1.67528226256371</v>
+      </c>
+      <c r="DI104" s="0" t="n">
+        <f aca="false">AVERAGE(DI3:DI102)</f>
+        <v>1.65851444482803</v>
+      </c>
+      <c r="DJ104" s="0" t="n">
+        <f aca="false">AVERAGE(DJ3:DJ102)</f>
+        <v>1.64361830115318</v>
+      </c>
+      <c r="DK104" s="0" t="n">
+        <f aca="false">AVERAGE(DK3:DK102)</f>
+        <v>1.6304438149929</v>
+      </c>
+      <c r="DL104" s="0" t="n">
+        <f aca="false">AVERAGE(DL3:DL102)</f>
+        <v>1.61827425956726</v>
+      </c>
+      <c r="DM104" s="0" t="n">
+        <f aca="false">AVERAGE(DM3:DM102)</f>
+        <v>1.60740000963211</v>
+      </c>
+      <c r="DN104" s="0" t="n">
+        <f aca="false">AVERAGE(DN3:DN102)</f>
+        <v>1.59809657216072</v>
+      </c>
+      <c r="DO104" s="0" t="n">
+        <f aca="false">AVERAGE(DO3:DO102)</f>
+        <v>1.59027517437935</v>
+      </c>
+      <c r="DP104" s="0" t="n">
+        <f aca="false">AVERAGE(DP3:DP102)</f>
+        <v>1.58363226532936</v>
+      </c>
+      <c r="DQ104" s="0" t="n">
+        <f aca="false">AVERAGE(DQ3:DQ102)</f>
+        <v>1.57524051070213</v>
+      </c>
+      <c r="DR104" s="0" t="n">
+        <f aca="false">AVERAGE(DR3:DR102)</f>
+        <v>1.56852602720261</v>
+      </c>
+      <c r="DS104" s="0" t="n">
+        <f aca="false">AVERAGE(DS3:DS102)</f>
+        <v>1.56319763183594</v>
+      </c>
+      <c r="DT104" s="0" t="n">
+        <f aca="false">AVERAGE(DT3:DT102)</f>
+        <v>1.55872952342033</v>
+      </c>
+      <c r="DU104" s="0" t="n">
+        <f aca="false">AVERAGE(DU3:DU102)</f>
+        <v>1.55348938584328</v>
+      </c>
+      <c r="DV104" s="0" t="n">
+        <f aca="false">AVERAGE(DV3:DV102)</f>
+        <v>1.54996658086777</v>
+      </c>
+      <c r="DW104" s="0" t="n">
+        <f aca="false">AVERAGE(DW3:DW102)</f>
+        <v>1.54605321884155</v>
+      </c>
+      <c r="DX104" s="0" t="n">
+        <f aca="false">AVERAGE(DX3:DX102)</f>
+        <v>1.54399938583374</v>
+      </c>
+      <c r="DY104" s="0" t="n">
+        <f aca="false">AVERAGE(DY3:DY102)</f>
+        <v>1.54126198291779</v>
+      </c>
+      <c r="DZ104" s="0" t="n">
+        <f aca="false">AVERAGE(DZ3:DZ102)</f>
+        <v>1.53805663347244</v>
+      </c>
+      <c r="EA104" s="0" t="n">
+        <f aca="false">AVERAGE(EA3:EA102)</f>
+        <v>1.53586810112</v>
+      </c>
+      <c r="EB104" s="0" t="n">
+        <f aca="false">AVERAGE(EB3:EB102)</f>
+        <v>1.53439529538155</v>
+      </c>
+      <c r="EC104" s="0" t="n">
+        <f aca="false">AVERAGE(EC3:EC102)</f>
+        <v>1.53294046640396</v>
+      </c>
+      <c r="ED104" s="0" t="n">
+        <f aca="false">AVERAGE(ED3:ED102)</f>
+        <v>1.5318604183197</v>
+      </c>
+      <c r="EE104" s="0" t="n">
+        <f aca="false">AVERAGE(EE3:EE102)</f>
+        <v>1.53147063851357</v>
+      </c>
+      <c r="EF104" s="0" t="n">
+        <f aca="false">AVERAGE(EF3:EF102)</f>
+        <v>1.53102283358574</v>
+      </c>
+      <c r="EG104" s="0" t="n">
+        <f aca="false">AVERAGE(EG3:EG102)</f>
+        <v>1.53132724642754</v>
+      </c>
+      <c r="EH104" s="0" t="n">
+        <f aca="false">AVERAGE(EH3:EH102)</f>
+        <v>1.53229162693024</v>
+      </c>
+      <c r="EI104" s="0" t="n">
+        <f aca="false">AVERAGE(EI3:EI102)</f>
+        <v>1.53164304614067</v>
+      </c>
+      <c r="EJ104" s="0" t="n">
+        <f aca="false">AVERAGE(EJ3:EJ102)</f>
+        <v>1.53024952054024</v>
+      </c>
+      <c r="EK104" s="0" t="n">
+        <f aca="false">AVERAGE(EK3:EK102)</f>
+        <v>1.53044023633003</v>
+      </c>
+      <c r="EL104" s="0" t="n">
+        <f aca="false">AVERAGE(EL3:EL102)</f>
+        <v>1.53387222647667</v>
+      </c>
+      <c r="EM104" s="0" t="n">
+        <f aca="false">AVERAGE(EM3:EM102)</f>
+        <v>1.53610839247704</v>
+      </c>
+      <c r="EN104" s="0" t="n">
+        <f aca="false">AVERAGE(EN3:EN102)</f>
+        <v>1.53592741131783</v>
+      </c>
+      <c r="EO104" s="0" t="n">
+        <f aca="false">AVERAGE(EO3:EO102)</f>
+        <v>1.53687897086144</v>
+      </c>
+      <c r="EP104" s="0" t="n">
+        <f aca="false">AVERAGE(EP3:EP102)</f>
+        <v>1.53715362071991</v>
+      </c>
+      <c r="EQ104" s="0" t="n">
+        <f aca="false">AVERAGE(EQ3:EQ102)</f>
+        <v>1.53844190835953</v>
+      </c>
+      <c r="ER104" s="0" t="n">
+        <f aca="false">AVERAGE(ER3:ER102)</f>
+        <v>1.53990414023399</v>
+      </c>
+      <c r="ES104" s="0" t="n">
+        <f aca="false">AVERAGE(ES3:ES102)</f>
+        <v>1.54350898385048</v>
+      </c>
+      <c r="ET104" s="0" t="n">
+        <f aca="false">AVERAGE(ET3:ET102)</f>
+        <v>1.54665274858475</v>
+      </c>
+      <c r="EU104" s="0" t="n">
+        <f aca="false">AVERAGE(EU3:EU102)</f>
+        <v>1.55262956023216</v>
+      </c>
+      <c r="EV104" s="0" t="n">
+        <f aca="false">AVERAGE(EV3:EV102)</f>
+        <v>1.5550753068924</v>
+      </c>
+      <c r="EW104" s="0" t="n">
+        <f aca="false">AVERAGE(EW3:EW102)</f>
+        <v>1.56039079785347</v>
+      </c>
+      <c r="EX104" s="0" t="n">
+        <f aca="false">AVERAGE(EX3:EX102)</f>
+        <v>1.56292262911797</v>
+      </c>
+      <c r="EY104" s="0" t="n">
+        <f aca="false">AVERAGE(EY3:EY102)</f>
+        <v>1.56041706562042</v>
+      </c>
+      <c r="EZ104" s="0" t="n">
+        <f aca="false">AVERAGE(EZ3:EZ102)</f>
+        <v>1.56466697216034</v>
+      </c>
+      <c r="FA104" s="0" t="n">
+        <f aca="false">AVERAGE(FA3:FA102)</f>
+        <v>1.56753095626831</v>
+      </c>
+      <c r="FB104" s="0" t="n">
+        <f aca="false">AVERAGE(FB3:FB102)</f>
+        <v>1.57256430149078</v>
+      </c>
+      <c r="FC104" s="0" t="n">
+        <f aca="false">AVERAGE(FC3:FC102)</f>
+        <v>1.57454233527184</v>
+      </c>
+      <c r="FD104" s="0" t="n">
+        <f aca="false">AVERAGE(FD3:FD102)</f>
+        <v>1.57739841222763</v>
+      </c>
+      <c r="FE104" s="0" t="n">
+        <f aca="false">AVERAGE(FE3:FE102)</f>
+        <v>1.58108902215958</v>
+      </c>
+      <c r="FF104" s="0" t="n">
+        <f aca="false">AVERAGE(FF3:FF102)</f>
+        <v>1.58347497701645</v>
+      </c>
+      <c r="FG104" s="0" t="n">
+        <f aca="false">AVERAGE(FG3:FG102)</f>
+        <v>1.58404267072678</v>
+      </c>
+      <c r="FH104" s="0" t="n">
+        <f aca="false">AVERAGE(FH3:FH102)</f>
+        <v>1.58759813308716</v>
+      </c>
+      <c r="FI104" s="0" t="n">
+        <f aca="false">AVERAGE(FI3:FI102)</f>
+        <v>1.59195417523384</v>
+      </c>
+      <c r="FJ104" s="0" t="n">
+        <f aca="false">AVERAGE(FJ3:FJ102)</f>
+        <v>1.59417078852654</v>
+      </c>
+      <c r="FK104" s="0" t="n">
+        <f aca="false">AVERAGE(FK3:FK102)</f>
+        <v>1.59665149569511</v>
+      </c>
+      <c r="FL104" s="0" t="n">
+        <f aca="false">AVERAGE(FL3:FL102)</f>
+        <v>1.59792283296585</v>
+      </c>
+      <c r="FM104" s="0" t="n">
+        <f aca="false">AVERAGE(FM3:FM102)</f>
+        <v>1.60111027598381</v>
+      </c>
+      <c r="FN104" s="0" t="n">
+        <f aca="false">AVERAGE(FN3:FN102)</f>
+        <v>1.60527183890343</v>
+      </c>
+      <c r="FO104" s="0" t="n">
+        <f aca="false">AVERAGE(FO3:FO102)</f>
+        <v>1.60826123833656</v>
+      </c>
+      <c r="FP104" s="0" t="n">
+        <f aca="false">AVERAGE(FP3:FP102)</f>
+        <v>1.61590581536293</v>
+      </c>
+      <c r="FQ104" s="0" t="n">
+        <f aca="false">AVERAGE(FQ3:FQ102)</f>
+        <v>1.62287546157837</v>
+      </c>
+      <c r="FR104" s="0" t="n">
+        <f aca="false">AVERAGE(FR3:FR102)</f>
+        <v>1.62410436034203</v>
+      </c>
+      <c r="FS104" s="0" t="n">
+        <f aca="false">AVERAGE(FS3:FS102)</f>
+        <v>1.62549131989479</v>
+      </c>
+      <c r="FT104" s="0" t="n">
+        <f aca="false">AVERAGE(FT3:FT102)</f>
+        <v>1.62871977210045</v>
+      </c>
+      <c r="FU104" s="0" t="n">
+        <f aca="false">AVERAGE(FU3:FU102)</f>
+        <v>1.63129636883736</v>
+      </c>
+      <c r="FV104" s="0" t="n">
+        <f aca="false">AVERAGE(FV3:FV102)</f>
+        <v>1.63761802434921</v>
+      </c>
+      <c r="FW104" s="0" t="n">
+        <f aca="false">AVERAGE(FW3:FW102)</f>
+        <v>1.63646160960197</v>
+      </c>
+      <c r="FX104" s="0" t="n">
+        <f aca="false">AVERAGE(FX3:FX102)</f>
+        <v>1.64309389233589</v>
+      </c>
+      <c r="FY104" s="0" t="n">
+        <f aca="false">AVERAGE(FY3:FY102)</f>
+        <v>1.64626737952232</v>
+      </c>
+      <c r="FZ104" s="0" t="n">
+        <f aca="false">AVERAGE(FZ3:FZ102)</f>
+        <v>1.65192176938057</v>
+      </c>
+      <c r="GA104" s="0" t="n">
+        <f aca="false">AVERAGE(GA3:GA102)</f>
+        <v>1.65070077061653</v>
+      </c>
+      <c r="GB104" s="0" t="n">
+        <f aca="false">AVERAGE(GB3:GB102)</f>
+        <v>1.6534413087368</v>
+      </c>
+      <c r="GC104" s="0" t="n">
+        <f aca="false">AVERAGE(GC3:GC102)</f>
+        <v>1.65972625494003</v>
+      </c>
+      <c r="GD104" s="0" t="n">
+        <f aca="false">AVERAGE(GD3:GD102)</f>
+        <v>1.65891216039658</v>
+      </c>
+      <c r="GE104" s="0" t="n">
+        <f aca="false">AVERAGE(GE3:GE102)</f>
+        <v>1.6649246096611</v>
+      </c>
+      <c r="GF104" s="0" t="n">
+        <f aca="false">AVERAGE(GF3:GF102)</f>
+        <v>1.67068941712379</v>
+      </c>
+      <c r="GG104" s="0" t="n">
+        <f aca="false">AVERAGE(GG3:GG102)</f>
+        <v>1.66872043848038</v>
+      </c>
+      <c r="GH104" s="0" t="n">
+        <f aca="false">AVERAGE(GH3:GH102)</f>
+        <v>1.67395741462708</v>
+      </c>
+      <c r="GI104" s="0" t="n">
+        <f aca="false">AVERAGE(GI3:GI102)</f>
+        <v>1.67929059863091</v>
+      </c>
+      <c r="GJ104" s="0" t="n">
+        <f aca="false">AVERAGE(GJ3:GJ102)</f>
+        <v>1.68695979356766</v>
+      </c>
+      <c r="GK104" s="0" t="n">
+        <f aca="false">AVERAGE(GK3:GK102)</f>
+        <v>1.68920184612274</v>
+      </c>
+      <c r="GL104" s="0" t="n">
+        <f aca="false">AVERAGE(GL3:GL102)</f>
+        <v>1.69329026460648</v>
+      </c>
+      <c r="GM104" s="0" t="n">
+        <f aca="false">AVERAGE(GM3:GM102)</f>
+        <v>1.6983682346344</v>
+      </c>
+      <c r="GN104" s="0" t="n">
+        <f aca="false">AVERAGE(GN3:GN102)</f>
+        <v>1.69930497169495</v>
+      </c>
+      <c r="GO104" s="0" t="n">
+        <f aca="false">AVERAGE(GO3:GO102)</f>
+        <v>1.70067439675331</v>
+      </c>
+      <c r="GP104" s="0" t="n">
+        <f aca="false">AVERAGE(GP3:GP102)</f>
+        <v>1.70871563911438</v>
+      </c>
+      <c r="GQ104" s="0" t="n">
+        <f aca="false">AVERAGE(GQ3:GQ102)</f>
+        <v>1.70461698055267</v>
+      </c>
+      <c r="GR104" s="0" t="n">
+        <f aca="false">AVERAGE(GR3:GR102)</f>
+        <v>1.70857004404068</v>
+      </c>
+      <c r="GS104" s="0" t="n">
+        <f aca="false">AVERAGE(GS3:GS102)</f>
+        <v>1.71331299066544</v>
+      </c>
+      <c r="GT104" s="0" t="n">
+        <f aca="false">AVERAGE(GT3:GT102)</f>
+        <v>1.7212818300724</v>
+      </c>
+      <c r="GU104" s="0" t="n">
+        <f aca="false">AVERAGE(GU3:GU102)</f>
+        <v>1.72276515007019</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <f aca="false">CORREL(B3:B102,$CX3:$CX102)</f>
+        <v>-0.242476302984259</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <f aca="false">CORREL(C3:C102,$CX3:$CX102)</f>
+        <v>0.613430717654566</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <f aca="false">CORREL(D3:D102,$CX3:$CX102)</f>
+        <v>0.711136201245807</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <f aca="false">CORREL(E3:E102,$CX3:$CX102)</f>
+        <v>0.796214067413496</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <f aca="false">CORREL(F3:F102,$CX3:$CX102)</f>
+        <v>0.856831198789033</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <f aca="false">CORREL(G3:G102,$CX3:$CX102)</f>
+        <v>0.895814227630262</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <f aca="false">CORREL(H3:H102,$CX3:$CX102)</f>
+        <v>0.916567077512791</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <f aca="false">CORREL(I3:I102,$CX3:$CX102)</f>
+        <v>0.927805996240972</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <f aca="false">CORREL(J3:J102,$CX3:$CX102)</f>
+        <v>0.935007672781746</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <f aca="false">CORREL(K3:K102,$CX3:$CX102)</f>
+        <v>0.94029609177081</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <f aca="false">CORREL(L3:L102,$CX3:$CX102)</f>
+        <v>0.943980580572216</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <f aca="false">CORREL(M3:M102,$CX3:$CX102)</f>
+        <v>0.94591775668972</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <f aca="false">CORREL(N3:N102,$CX3:$CX102)</f>
+        <v>0.9474063135812</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <f aca="false">CORREL(O3:O102,$CX3:$CX102)</f>
+        <v>0.948244327289202</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <f aca="false">CORREL(P3:P102,$CX3:$CX102)</f>
+        <v>0.948713135816118</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <f aca="false">CORREL(Q3:Q102,$CX3:$CX102)</f>
+        <v>0.949097202250634</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <f aca="false">CORREL(R3:R102,$CX3:$CX102)</f>
+        <v>0.950379881758509</v>
+      </c>
+      <c r="S106" s="0" t="n">
+        <f aca="false">CORREL(S3:S102,$CX3:$CX102)</f>
+        <v>0.952668367231512</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <f aca="false">CORREL(T3:T102,$CX3:$CX102)</f>
+        <v>0.949250764849227</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <f aca="false">CORREL(U3:U102,$CX3:$CX102)</f>
+        <v>0.948762515925413</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <f aca="false">CORREL(V3:V102,$CX3:$CX102)</f>
+        <v>0.949631407585757</v>
+      </c>
+      <c r="W106" s="0" t="n">
+        <f aca="false">CORREL(W3:W102,$CX3:$CX102)</f>
+        <v>0.95000597086953</v>
+      </c>
+      <c r="X106" s="0" t="n">
+        <f aca="false">CORREL(X3:X102,$CX3:$CX102)</f>
+        <v>0.950225203918179</v>
+      </c>
+      <c r="Y106" s="0" t="n">
+        <f aca="false">CORREL(Y3:Y102,$CX3:$CX102)</f>
+        <v>0.951161479721805</v>
+      </c>
+      <c r="Z106" s="0" t="n">
+        <f aca="false">CORREL(Z3:Z102,$CX3:$CX102)</f>
+        <v>0.952102521752038</v>
+      </c>
+      <c r="AA106" s="0" t="n">
+        <f aca="false">CORREL(AA3:AA102,$CX3:$CX102)</f>
+        <v>0.953942772300499</v>
+      </c>
+      <c r="AB106" s="0" t="n">
+        <f aca="false">CORREL(AB3:AB102,$CX3:$CX102)</f>
+        <v>0.954980913786321</v>
+      </c>
+      <c r="AC106" s="0" t="n">
+        <f aca="false">CORREL(AC3:AC102,$CX3:$CX102)</f>
+        <v>0.956017986085604</v>
+      </c>
+      <c r="AD106" s="0" t="n">
+        <f aca="false">CORREL(AD3:AD102,$CX3:$CX102)</f>
+        <v>0.957709004118475</v>
+      </c>
+      <c r="AE106" s="0" t="n">
+        <f aca="false">CORREL(AE3:AE102,$CX3:$CX102)</f>
+        <v>0.959320016259292</v>
+      </c>
+      <c r="AF106" s="0" t="n">
+        <f aca="false">CORREL(AF3:AF102,$CX3:$CX102)</f>
+        <v>0.960752534213823</v>
+      </c>
+      <c r="AG106" s="0" t="n">
+        <f aca="false">CORREL(AG3:AG102,$CX3:$CX102)</f>
+        <v>0.962301475352837</v>
+      </c>
+      <c r="AH106" s="0" t="n">
+        <f aca="false">CORREL(AH3:AH102,$CX3:$CX102)</f>
+        <v>0.963649942080647</v>
+      </c>
+      <c r="AI106" s="0" t="n">
+        <f aca="false">CORREL(AI3:AI102,$CX3:$CX102)</f>
+        <v>0.964095557541007</v>
+      </c>
+      <c r="AJ106" s="0" t="n">
+        <f aca="false">CORREL(AJ3:AJ102,$CX3:$CX102)</f>
+        <v>0.964971659124243</v>
+      </c>
+      <c r="AK106" s="0" t="n">
+        <f aca="false">CORREL(AK3:AK102,$CX3:$CX102)</f>
+        <v>0.966829657041464</v>
+      </c>
+      <c r="AL106" s="0" t="n">
+        <f aca="false">CORREL(AL3:AL102,$CX3:$CX102)</f>
+        <v>0.968453471574826</v>
+      </c>
+      <c r="AM106" s="0" t="n">
+        <f aca="false">CORREL(AM3:AM102,$CX3:$CX102)</f>
+        <v>0.968825496966545</v>
+      </c>
+      <c r="AN106" s="0" t="n">
+        <f aca="false">CORREL(AN3:AN102,$CX3:$CX102)</f>
+        <v>0.970169960189113</v>
+      </c>
+      <c r="AO106" s="0" t="n">
+        <f aca="false">CORREL(AO3:AO102,$CX3:$CX102)</f>
+        <v>0.97278646262469</v>
+      </c>
+      <c r="AP106" s="0" t="n">
+        <f aca="false">CORREL(AP3:AP102,$CX3:$CX102)</f>
+        <v>0.974295854195996</v>
+      </c>
+      <c r="AQ106" s="0" t="n">
+        <f aca="false">CORREL(AQ3:AQ102,$CX3:$CX102)</f>
+        <v>0.974567740130286</v>
+      </c>
+      <c r="AR106" s="0" t="n">
+        <f aca="false">CORREL(AR3:AR102,$CX3:$CX102)</f>
+        <v>0.975411630337061</v>
+      </c>
+      <c r="AS106" s="0" t="n">
+        <f aca="false">CORREL(AS3:AS102,$CX3:$CX102)</f>
+        <v>0.97605682466803</v>
+      </c>
+      <c r="AT106" s="0" t="n">
+        <f aca="false">CORREL(AT3:AT102,$CX3:$CX102)</f>
+        <v>0.97657728526524</v>
+      </c>
+      <c r="AU106" s="0" t="n">
+        <f aca="false">CORREL(AU3:AU102,$CX3:$CX102)</f>
+        <v>0.97753336409658</v>
+      </c>
+      <c r="AV106" s="0" t="n">
+        <f aca="false">CORREL(AV3:AV102,$CX3:$CX102)</f>
+        <v>0.978807381595628</v>
+      </c>
+      <c r="AW106" s="0" t="n">
+        <f aca="false">CORREL(AW3:AW102,$CX3:$CX102)</f>
+        <v>0.979752339636315</v>
+      </c>
+      <c r="AX106" s="0" t="n">
+        <f aca="false">CORREL(AX3:AX102,$CX3:$CX102)</f>
+        <v>0.98108595528263</v>
+      </c>
+      <c r="AY106" s="0" t="n">
+        <f aca="false">CORREL(AY3:AY102,$CX3:$CX102)</f>
+        <v>0.981946372249926</v>
+      </c>
+      <c r="AZ106" s="0" t="n">
+        <f aca="false">CORREL(AZ3:AZ102,$CX3:$CX102)</f>
+        <v>0.983055749614652</v>
+      </c>
+      <c r="BA106" s="0" t="n">
+        <f aca="false">CORREL(BA3:BA102,$CX3:$CX102)</f>
+        <v>0.98295709337368</v>
+      </c>
+      <c r="BB106" s="0" t="n">
+        <f aca="false">CORREL(BB3:BB102,$CX3:$CX102)</f>
+        <v>0.983294608510283</v>
+      </c>
+      <c r="BC106" s="0" t="n">
+        <f aca="false">CORREL(BC3:BC102,$CX3:$CX102)</f>
+        <v>0.984072117578789</v>
+      </c>
+      <c r="BD106" s="0" t="n">
+        <f aca="false">CORREL(BD3:BD102,$CX3:$CX102)</f>
+        <v>0.984222479500402</v>
+      </c>
+      <c r="BE106" s="0" t="n">
+        <f aca="false">CORREL(BE3:BE102,$CX3:$CX102)</f>
+        <v>0.984342504794032</v>
+      </c>
+      <c r="BF106" s="0" t="n">
+        <f aca="false">CORREL(BF3:BF102,$CX3:$CX102)</f>
+        <v>0.985197933439726</v>
+      </c>
+      <c r="BG106" s="0" t="n">
+        <f aca="false">CORREL(BG3:BG102,$CX3:$CX102)</f>
+        <v>0.985975529574608</v>
+      </c>
+      <c r="BH106" s="0" t="n">
+        <f aca="false">CORREL(BH3:BH102,$CX3:$CX102)</f>
+        <v>0.986928327218424</v>
+      </c>
+      <c r="BI106" s="0" t="n">
+        <f aca="false">CORREL(BI3:BI102,$CX3:$CX102)</f>
+        <v>0.987561935145121</v>
+      </c>
+      <c r="BJ106" s="0" t="n">
+        <f aca="false">CORREL(BJ3:BJ102,$CX3:$CX102)</f>
+        <v>0.988402275067202</v>
+      </c>
+      <c r="BK106" s="0" t="n">
+        <f aca="false">CORREL(BK3:BK102,$CX3:$CX102)</f>
+        <v>0.988894327411769</v>
+      </c>
+      <c r="BL106" s="0" t="n">
+        <f aca="false">CORREL(BL3:BL102,$CX3:$CX102)</f>
+        <v>0.990394142993978</v>
+      </c>
+      <c r="BM106" s="0" t="n">
+        <f aca="false">CORREL(BM3:BM102,$CX3:$CX102)</f>
+        <v>0.9908235696305</v>
+      </c>
+      <c r="BN106" s="0" t="n">
+        <f aca="false">CORREL(BN3:BN102,$CX3:$CX102)</f>
+        <v>0.991201693330433</v>
+      </c>
+      <c r="BO106" s="0" t="n">
+        <f aca="false">CORREL(BO3:BO102,$CX3:$CX102)</f>
+        <v>0.991744510705966</v>
+      </c>
+      <c r="BP106" s="0" t="n">
+        <f aca="false">CORREL(BP3:BP102,$CX3:$CX102)</f>
+        <v>0.992125028078272</v>
+      </c>
+      <c r="BQ106" s="0" t="n">
+        <f aca="false">CORREL(BQ3:BQ102,$CX3:$CX102)</f>
+        <v>0.992242584002118</v>
+      </c>
+      <c r="BR106" s="0" t="n">
+        <f aca="false">CORREL(BR3:BR102,$CX3:$CX102)</f>
+        <v>0.992715810862638</v>
+      </c>
+      <c r="BS106" s="0" t="n">
+        <f aca="false">CORREL(BS3:BS102,$CX3:$CX102)</f>
+        <v>0.993184224852802</v>
+      </c>
+      <c r="BT106" s="0" t="n">
+        <f aca="false">CORREL(BT3:BT102,$CX3:$CX102)</f>
+        <v>0.993614956127938</v>
+      </c>
+      <c r="BU106" s="0" t="n">
+        <f aca="false">CORREL(BU3:BU102,$CX3:$CX102)</f>
+        <v>0.993987210234993</v>
+      </c>
+      <c r="BV106" s="0" t="n">
+        <f aca="false">CORREL(BV3:BV102,$CX3:$CX102)</f>
+        <v>0.994428350363573</v>
+      </c>
+      <c r="BW106" s="0" t="n">
+        <f aca="false">CORREL(BW3:BW102,$CX3:$CX102)</f>
+        <v>0.994967876740456</v>
+      </c>
+      <c r="BX106" s="0" t="n">
+        <f aca="false">CORREL(BX3:BX102,$CX3:$CX102)</f>
+        <v>0.995116346948626</v>
+      </c>
+      <c r="BY106" s="0" t="n">
+        <f aca="false">CORREL(BY3:BY102,$CX3:$CX102)</f>
+        <v>0.995123582216264</v>
+      </c>
+      <c r="BZ106" s="0" t="n">
+        <f aca="false">CORREL(BZ3:BZ102,$CX3:$CX102)</f>
+        <v>0.995720613650966</v>
+      </c>
+      <c r="CA106" s="0" t="n">
+        <f aca="false">CORREL(CA3:CA102,$CX3:$CX102)</f>
+        <v>0.996139690175496</v>
+      </c>
+      <c r="CB106" s="0" t="n">
+        <f aca="false">CORREL(CB3:CB102,$CX3:$CX102)</f>
+        <v>0.996369172159677</v>
+      </c>
+      <c r="CC106" s="0" t="n">
+        <f aca="false">CORREL(CC3:CC102,$CX3:$CX102)</f>
+        <v>0.99665373087855</v>
+      </c>
+      <c r="CD106" s="0" t="n">
+        <f aca="false">CORREL(CD3:CD102,$CX3:$CX102)</f>
+        <v>0.997088886053733</v>
+      </c>
+      <c r="CE106" s="0" t="n">
+        <f aca="false">CORREL(CE3:CE102,$CX3:$CX102)</f>
+        <v>0.997236930934321</v>
+      </c>
+      <c r="CF106" s="0" t="n">
+        <f aca="false">CORREL(CF3:CF102,$CX3:$CX102)</f>
+        <v>0.996862089968755</v>
+      </c>
+      <c r="CG106" s="0" t="n">
+        <f aca="false">CORREL(CG3:CG102,$CX3:$CX102)</f>
+        <v>0.997805783756649</v>
+      </c>
+      <c r="CH106" s="0" t="n">
+        <f aca="false">CORREL(CH3:CH102,$CX3:$CX102)</f>
+        <v>0.997896151219481</v>
+      </c>
+      <c r="CI106" s="0" t="n">
+        <f aca="false">CORREL(CI3:CI102,$CX3:$CX102)</f>
+        <v>0.997649566856559</v>
+      </c>
+      <c r="CJ106" s="0" t="n">
+        <f aca="false">CORREL(CJ3:CJ102,$CX3:$CX102)</f>
+        <v>0.998192560811706</v>
+      </c>
+      <c r="CK106" s="0" t="n">
+        <f aca="false">CORREL(CK3:CK102,$CX3:$CX102)</f>
+        <v>0.998470620972697</v>
+      </c>
+      <c r="CL106" s="0" t="n">
+        <f aca="false">CORREL(CL3:CL102,$CX3:$CX102)</f>
+        <v>0.998231649526555</v>
+      </c>
+      <c r="CM106" s="0" t="n">
+        <f aca="false">CORREL(CM3:CM102,$CX3:$CX102)</f>
+        <v>0.998185318723538</v>
+      </c>
+      <c r="CN106" s="0" t="n">
+        <f aca="false">CORREL(CN3:CN102,$CX3:$CX102)</f>
+        <v>0.997943150344608</v>
+      </c>
+      <c r="CO106" s="0" t="n">
+        <f aca="false">CORREL(CO3:CO102,$CX3:$CX102)</f>
+        <v>0.997876824793295</v>
+      </c>
+      <c r="CP106" s="0" t="n">
+        <f aca="false">CORREL(CP3:CP102,$CX3:$CX102)</f>
+        <v>0.997298128562622</v>
+      </c>
+      <c r="CQ106" s="0" t="n">
+        <f aca="false">CORREL(CQ3:CQ102,$CX3:$CX102)</f>
+        <v>0.998679306908766</v>
+      </c>
+      <c r="CR106" s="0" t="n">
+        <f aca="false">CORREL(CR3:CR102,$CX3:$CX102)</f>
+        <v>0.998675373976564</v>
+      </c>
+      <c r="CS106" s="0" t="n">
+        <f aca="false">CORREL(CS3:CS102,$CX3:$CX102)</f>
+        <v>0.994771130597581</v>
+      </c>
+      <c r="CT106" s="0" t="n">
+        <f aca="false">CORREL(CT3:CT102,$CX3:$CX102)</f>
+        <v>0.998951033637787</v>
+      </c>
+      <c r="CU106" s="0" t="n">
+        <f aca="false">CORREL(CU3:CU102,$CX3:$CX102)</f>
+        <v>0.998813320225206</v>
+      </c>
+      <c r="CV106" s="0" t="n">
+        <f aca="false">CORREL(CV3:CV102,$CX3:$CX102)</f>
+        <v>0.999310725098844</v>
+      </c>
+      <c r="CW106" s="0" t="n">
+        <f aca="false">CORREL(CW3:CW102,$CX3:$CX102)</f>
+        <v>0.99989385146803</v>
+      </c>
+      <c r="CX106" s="0" t="n">
+        <f aca="false">CORREL(CX3:CX102,$CX3:$CX102)</f>
+        <v>1</v>
+      </c>
+      <c r="CY106" s="0" t="n">
+        <f aca="false">CORREL(CY3:CY102,$CX3:$CX102)</f>
+        <v>-0.241877565057579</v>
+      </c>
+      <c r="CZ106" s="0" t="n">
+        <f aca="false">CORREL(CZ3:CZ102,$CX3:$CX102)</f>
+        <v>0.606691792347035</v>
+      </c>
+      <c r="DA106" s="0" t="n">
+        <f aca="false">CORREL(DA3:DA102,$CX3:$CX102)</f>
+        <v>0.698977932827425</v>
+      </c>
+      <c r="DB106" s="0" t="n">
+        <f aca="false">CORREL(DB3:DB102,$CX3:$CX102)</f>
+        <v>0.779179297941606</v>
+      </c>
+      <c r="DC106" s="0" t="n">
+        <f aca="false">CORREL(DC3:DC102,$CX3:$CX102)</f>
+        <v>0.835647024838117</v>
+      </c>
+      <c r="DD106" s="0" t="n">
+        <f aca="false">CORREL(DD3:DD102,$CX3:$CX102)</f>
+        <v>0.872865464877729</v>
+      </c>
+      <c r="DE106" s="0" t="n">
+        <f aca="false">CORREL(DE3:DE102,$CX3:$CX102)</f>
+        <v>0.892654816514414</v>
+      </c>
+      <c r="DF106" s="0" t="n">
+        <f aca="false">CORREL(DF3:DF102,$CX3:$CX102)</f>
+        <v>0.903717628413076</v>
+      </c>
+      <c r="DG106" s="0" t="n">
+        <f aca="false">CORREL(DG3:DG102,$CX3:$CX102)</f>
+        <v>0.91117313377486</v>
+      </c>
+      <c r="DH106" s="0" t="n">
+        <f aca="false">CORREL(DH3:DH102,$CX3:$CX102)</f>
+        <v>0.917406555443976</v>
+      </c>
+      <c r="DI106" s="0" t="n">
+        <f aca="false">CORREL(DI3:DI102,$CX3:$CX102)</f>
+        <v>0.922180170945117</v>
+      </c>
+      <c r="DJ106" s="0" t="n">
+        <f aca="false">CORREL(DJ3:DJ102,$CX3:$CX102)</f>
+        <v>0.92567178778453</v>
+      </c>
+      <c r="DK106" s="0" t="n">
+        <f aca="false">CORREL(DK3:DK102,$CX3:$CX102)</f>
+        <v>0.928384021679825</v>
+      </c>
+      <c r="DL106" s="0" t="n">
+        <f aca="false">CORREL(DL3:DL102,$CX3:$CX102)</f>
+        <v>0.930304320367469</v>
+      </c>
+      <c r="DM106" s="0" t="n">
+        <f aca="false">CORREL(DM3:DM102,$CX3:$CX102)</f>
+        <v>0.931579061656343</v>
+      </c>
+      <c r="DN106" s="0" t="n">
+        <f aca="false">CORREL(DN3:DN102,$CX3:$CX102)</f>
+        <v>0.930678524750329</v>
+      </c>
+      <c r="DO106" s="0" t="n">
+        <f aca="false">CORREL(DO3:DO102,$CX3:$CX102)</f>
+        <v>0.926891868995786</v>
+      </c>
+      <c r="DP106" s="0" t="n">
+        <f aca="false">CORREL(DP3:DP102,$CX3:$CX102)</f>
+        <v>0.918796297274809</v>
+      </c>
+      <c r="DQ106" s="0" t="n">
+        <f aca="false">CORREL(DQ3:DQ102,$CX3:$CX102)</f>
+        <v>0.924290007477725</v>
+      </c>
+      <c r="DR106" s="0" t="n">
+        <f aca="false">CORREL(DR3:DR102,$CX3:$CX102)</f>
+        <v>0.922420523748204</v>
+      </c>
+      <c r="DS106" s="0" t="n">
+        <f aca="false">CORREL(DS3:DS102,$CX3:$CX102)</f>
+        <v>0.917682008574358</v>
+      </c>
+      <c r="DT106" s="0" t="n">
+        <f aca="false">CORREL(DT3:DT102,$CX3:$CX102)</f>
+        <v>0.910708639299969</v>
+      </c>
+      <c r="DU106" s="0" t="n">
+        <f aca="false">CORREL(DU3:DU102,$CX3:$CX102)</f>
+        <v>0.910953365767726</v>
+      </c>
+      <c r="DV106" s="0" t="n">
+        <f aca="false">CORREL(DV3:DV102,$CX3:$CX102)</f>
+        <v>0.903623974233087</v>
+      </c>
+      <c r="DW106" s="0" t="n">
+        <f aca="false">CORREL(DW3:DW102,$CX3:$CX102)</f>
+        <v>0.901109320434714</v>
+      </c>
+      <c r="DX106" s="0" t="n">
+        <f aca="false">CORREL(DX3:DX102,$CX3:$CX102)</f>
+        <v>0.889481231456093</v>
+      </c>
+      <c r="DY106" s="0" t="n">
+        <f aca="false">CORREL(DY3:DY102,$CX3:$CX102)</f>
+        <v>0.88659008451411</v>
+      </c>
+      <c r="DZ106" s="0" t="n">
+        <f aca="false">CORREL(DZ3:DZ102,$CX3:$CX102)</f>
+        <v>0.887316662576699</v>
+      </c>
+      <c r="EA106" s="0" t="n">
+        <f aca="false">CORREL(EA3:EA102,$CX3:$CX102)</f>
+        <v>0.880165991057717</v>
+      </c>
+      <c r="EB106" s="0" t="n">
+        <f aca="false">CORREL(EB3:EB102,$CX3:$CX102)</f>
+        <v>0.872168410252969</v>
+      </c>
+      <c r="EC106" s="0" t="n">
+        <f aca="false">CORREL(EC3:EC102,$CX3:$CX102)</f>
+        <v>0.863420255703334</v>
+      </c>
+      <c r="ED106" s="0" t="n">
+        <f aca="false">CORREL(ED3:ED102,$CX3:$CX102)</f>
+        <v>0.853535580977115</v>
+      </c>
+      <c r="EE106" s="0" t="n">
+        <f aca="false">CORREL(EE3:EE102,$CX3:$CX102)</f>
+        <v>0.84237653366727</v>
+      </c>
+      <c r="EF106" s="0" t="n">
+        <f aca="false">CORREL(EF3:EF102,$CX3:$CX102)</f>
+        <v>0.835733588923292</v>
+      </c>
+      <c r="EG106" s="0" t="n">
+        <f aca="false">CORREL(EG3:EG102,$CX3:$CX102)</f>
+        <v>0.826668422359147</v>
+      </c>
+      <c r="EH106" s="0" t="n">
+        <f aca="false">CORREL(EH3:EH102,$CX3:$CX102)</f>
+        <v>0.809483607621058</v>
+      </c>
+      <c r="EI106" s="0" t="n">
+        <f aca="false">CORREL(EI3:EI102,$CX3:$CX102)</f>
+        <v>0.801912254671778</v>
+      </c>
+      <c r="EJ106" s="0" t="n">
+        <f aca="false">CORREL(EJ3:EJ102,$CX3:$CX102)</f>
+        <v>0.801212367501796</v>
+      </c>
+      <c r="EK106" s="0" t="n">
+        <f aca="false">CORREL(EK3:EK102,$CX3:$CX102)</f>
+        <v>0.791553094555256</v>
+      </c>
+      <c r="EL106" s="0" t="n">
+        <f aca="false">CORREL(EL3:EL102,$CX3:$CX102)</f>
+        <v>0.763506420620846</v>
+      </c>
+      <c r="EM106" s="0" t="n">
+        <f aca="false">CORREL(EM3:EM102,$CX3:$CX102)</f>
+        <v>0.743637077277837</v>
+      </c>
+      <c r="EN106" s="0" t="n">
+        <f aca="false">CORREL(EN3:EN102,$CX3:$CX102)</f>
+        <v>0.738805601636955</v>
+      </c>
+      <c r="EO106" s="0" t="n">
+        <f aca="false">CORREL(EO3:EO102,$CX3:$CX102)</f>
+        <v>0.728297207551382</v>
+      </c>
+      <c r="EP106" s="0" t="n">
+        <f aca="false">CORREL(EP3:EP102,$CX3:$CX102)</f>
+        <v>0.719131424859874</v>
+      </c>
+      <c r="EQ106" s="0" t="n">
+        <f aca="false">CORREL(EQ3:EQ102,$CX3:$CX102)</f>
+        <v>0.711606638393031</v>
+      </c>
+      <c r="ER106" s="0" t="n">
+        <f aca="false">CORREL(ER3:ER102,$CX3:$CX102)</f>
+        <v>0.701860853721531</v>
+      </c>
+      <c r="ES106" s="0" t="n">
+        <f aca="false">CORREL(ES3:ES102,$CX3:$CX102)</f>
+        <v>0.680511056795397</v>
+      </c>
+      <c r="ET106" s="0" t="n">
+        <f aca="false">CORREL(ET3:ET102,$CX3:$CX102)</f>
+        <v>0.662326132983873</v>
+      </c>
+      <c r="EU106" s="0" t="n">
+        <f aca="false">CORREL(EU3:EU102,$CX3:$CX102)</f>
+        <v>0.62427703271763</v>
+      </c>
+      <c r="EV106" s="0" t="n">
+        <f aca="false">CORREL(EV3:EV102,$CX3:$CX102)</f>
+        <v>0.610392114876168</v>
+      </c>
+      <c r="EW106" s="0" t="n">
+        <f aca="false">CORREL(EW3:EW102,$CX3:$CX102)</f>
+        <v>0.571706379841897</v>
+      </c>
+      <c r="EX106" s="0" t="n">
+        <f aca="false">CORREL(EX3:EX102,$CX3:$CX102)</f>
+        <v>0.559709797569392</v>
+      </c>
+      <c r="EY106" s="0" t="n">
+        <f aca="false">CORREL(EY3:EY102,$CX3:$CX102)</f>
+        <v>0.571705024899982</v>
+      </c>
+      <c r="EZ106" s="0" t="n">
+        <f aca="false">CORREL(EZ3:EZ102,$CX3:$CX102)</f>
+        <v>0.547503816528372</v>
+      </c>
+      <c r="FA106" s="0" t="n">
+        <f aca="false">CORREL(FA3:FA102,$CX3:$CX102)</f>
+        <v>0.526698070744782</v>
+      </c>
+      <c r="FB106" s="0" t="n">
+        <f aca="false">CORREL(FB3:FB102,$CX3:$CX102)</f>
+        <v>0.498389950941602</v>
+      </c>
+      <c r="FC106" s="0" t="n">
+        <f aca="false">CORREL(FC3:FC102,$CX3:$CX102)</f>
+        <v>0.482520419698119</v>
+      </c>
+      <c r="FD106" s="0" t="n">
+        <f aca="false">CORREL(FD3:FD102,$CX3:$CX102)</f>
+        <v>0.465400543219238</v>
+      </c>
+      <c r="FE106" s="0" t="n">
+        <f aca="false">CORREL(FE3:FE102,$CX3:$CX102)</f>
+        <v>0.439137554791999</v>
+      </c>
+      <c r="FF106" s="0" t="n">
+        <f aca="false">CORREL(FF3:FF102,$CX3:$CX102)</f>
+        <v>0.424302994045647</v>
+      </c>
+      <c r="FG106" s="0" t="n">
+        <f aca="false">CORREL(FG3:FG102,$CX3:$CX102)</f>
+        <v>0.417073480768716</v>
+      </c>
+      <c r="FH106" s="0" t="n">
+        <f aca="false">CORREL(FH3:FH102,$CX3:$CX102)</f>
+        <v>0.39393864207727</v>
+      </c>
+      <c r="FI106" s="0" t="n">
+        <f aca="false">CORREL(FI3:FI102,$CX3:$CX102)</f>
+        <v>0.370384734961717</v>
+      </c>
+      <c r="FJ106" s="0" t="n">
+        <f aca="false">CORREL(FJ3:FJ102,$CX3:$CX102)</f>
+        <v>0.356882971531835</v>
+      </c>
+      <c r="FK106" s="0" t="n">
+        <f aca="false">CORREL(FK3:FK102,$CX3:$CX102)</f>
+        <v>0.34014064061064</v>
+      </c>
+      <c r="FL106" s="0" t="n">
+        <f aca="false">CORREL(FL3:FL102,$CX3:$CX102)</f>
+        <v>0.331883034783995</v>
+      </c>
+      <c r="FM106" s="0" t="n">
+        <f aca="false">CORREL(FM3:FM102,$CX3:$CX102)</f>
+        <v>0.311738912334976</v>
+      </c>
+      <c r="FN106" s="0" t="n">
+        <f aca="false">CORREL(FN3:FN102,$CX3:$CX102)</f>
+        <v>0.290165106942311</v>
+      </c>
+      <c r="FO106" s="0" t="n">
+        <f aca="false">CORREL(FO3:FO102,$CX3:$CX102)</f>
+        <v>0.274018552184542</v>
+      </c>
+      <c r="FP106" s="0" t="n">
+        <f aca="false">CORREL(FP3:FP102,$CX3:$CX102)</f>
+        <v>0.237756135431116</v>
+      </c>
+      <c r="FQ106" s="0" t="n">
+        <f aca="false">CORREL(FQ3:FQ102,$CX3:$CX102)</f>
+        <v>0.205752626118038</v>
+      </c>
+      <c r="FR106" s="0" t="n">
+        <f aca="false">CORREL(FR3:FR102,$CX3:$CX102)</f>
+        <v>0.202113004715906</v>
+      </c>
+      <c r="FS106" s="0" t="n">
+        <f aca="false">CORREL(FS3:FS102,$CX3:$CX102)</f>
+        <v>0.197026336737275</v>
+      </c>
+      <c r="FT106" s="0" t="n">
+        <f aca="false">CORREL(FT3:FT102,$CX3:$CX102)</f>
+        <v>0.182230247268411</v>
+      </c>
+      <c r="FU106" s="0" t="n">
+        <f aca="false">CORREL(FU3:FU102,$CX3:$CX102)</f>
+        <v>0.172222120607614</v>
+      </c>
+      <c r="FV106" s="0" t="n">
+        <f aca="false">CORREL(FV3:FV102,$CX3:$CX102)</f>
+        <v>0.14593978131693</v>
+      </c>
+      <c r="FW106" s="0" t="n">
+        <f aca="false">CORREL(FW3:FW102,$CX3:$CX102)</f>
+        <v>0.151611392818502</v>
+      </c>
+      <c r="FX106" s="0" t="n">
+        <f aca="false">CORREL(FX3:FX102,$CX3:$CX102)</f>
+        <v>0.12316761041242</v>
+      </c>
+      <c r="FY106" s="0" t="n">
+        <f aca="false">CORREL(FY3:FY102,$CX3:$CX102)</f>
+        <v>0.112281526142312</v>
+      </c>
+      <c r="FZ106" s="0" t="n">
+        <f aca="false">CORREL(FZ3:FZ102,$CX3:$CX102)</f>
+        <v>0.0883655184394078</v>
+      </c>
+      <c r="GA106" s="0" t="n">
+        <f aca="false">CORREL(GA3:GA102,$CX3:$CX102)</f>
+        <v>0.0938564954046036</v>
+      </c>
+      <c r="GB106" s="0" t="n">
+        <f aca="false">CORREL(GB3:GB102,$CX3:$CX102)</f>
+        <v>0.0829964436029481</v>
+      </c>
+      <c r="GC106" s="0" t="n">
+        <f aca="false">CORREL(GC3:GC102,$CX3:$CX102)</f>
+        <v>0.0582660034426871</v>
+      </c>
+      <c r="GD106" s="0" t="n">
+        <f aca="false">CORREL(GD3:GD102,$CX3:$CX102)</f>
+        <v>0.0651035744895278</v>
+      </c>
+      <c r="GE106" s="0" t="n">
+        <f aca="false">CORREL(GE3:GE102,$CX3:$CX102)</f>
+        <v>0.0422586658015122</v>
+      </c>
+      <c r="GF106" s="0" t="n">
+        <f aca="false">CORREL(GF3:GF102,$CX3:$CX102)</f>
+        <v>0.0220985000286041</v>
+      </c>
+      <c r="GG106" s="0" t="n">
+        <f aca="false">CORREL(GG3:GG102,$CX3:$CX102)</f>
+        <v>0.0305799017006416</v>
+      </c>
+      <c r="GH106" s="0" t="n">
+        <f aca="false">CORREL(GH3:GH102,$CX3:$CX102)</f>
+        <v>0.0134721977716993</v>
+      </c>
+      <c r="GI106" s="0" t="n">
+        <f aca="false">CORREL(GI3:GI102,$CX3:$CX102)</f>
+        <v>-0.0063564161000992</v>
+      </c>
+      <c r="GJ106" s="0" t="n">
+        <f aca="false">CORREL(GJ3:GJ102,$CX3:$CX102)</f>
+        <v>-0.0316454596836742</v>
+      </c>
+      <c r="GK106" s="0" t="n">
+        <f aca="false">CORREL(GK3:GK102,$CX3:$CX102)</f>
+        <v>-0.0362303888116042</v>
+      </c>
+      <c r="GL106" s="0" t="n">
+        <f aca="false">CORREL(GL3:GL102,$CX3:$CX102)</f>
+        <v>-0.0488685135628456</v>
+      </c>
+      <c r="GM106" s="0" t="n">
+        <f aca="false">CORREL(GM3:GM102,$CX3:$CX102)</f>
+        <v>-0.0660390241821713</v>
+      </c>
+      <c r="GN106" s="0" t="n">
+        <f aca="false">CORREL(GN3:GN102,$CX3:$CX102)</f>
+        <v>-0.0649364173742494</v>
+      </c>
+      <c r="GO106" s="0" t="n">
+        <f aca="false">CORREL(GO3:GO102,$CX3:$CX102)</f>
+        <v>-0.0685165329036405</v>
+      </c>
+      <c r="GP106" s="0" t="n">
+        <f aca="false">CORREL(GP3:GP102,$CX3:$CX102)</f>
+        <v>-0.0814675080640238</v>
+      </c>
+      <c r="GQ106" s="0" t="n">
+        <f aca="false">CORREL(GQ3:GQ102,$CX3:$CX102)</f>
+        <v>-0.0821616057147932</v>
+      </c>
+      <c r="GR106" s="0" t="n">
+        <f aca="false">CORREL(GR3:GR102,$CX3:$CX102)</f>
+        <v>-0.0913013448673016</v>
+      </c>
+      <c r="GS106" s="0" t="n">
+        <f aca="false">CORREL(GS3:GS102,$CX3:$CX102)</f>
+        <v>-0.107290383555593</v>
+      </c>
+      <c r="GT106" s="0" t="n">
+        <f aca="false">CORREL(GT3:GT102,$CX3:$CX102)</f>
+        <v>-0.124834263382911</v>
+      </c>
+      <c r="GU106" s="0" t="n">
+        <f aca="false">CORREL(GU3:GU102,$CX3:$CX102)</f>
+        <v>-0.131888638513511</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <f aca="false">CORREL(B3:B102,$GU3:$GU102)</f>
+        <v>-0.0546128080886186</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <f aca="false">CORREL(C3:C102,$GU3:$GU102)</f>
+        <v>0.175971924513884</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <f aca="false">CORREL(D3:D102,$GU3:$GU102)</f>
+        <v>0.152982564518567</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <f aca="false">CORREL(E3:E102,$GU3:$GU102)</f>
+        <v>0.121953773281249</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <f aca="false">CORREL(F3:F102,$GU3:$GU102)</f>
+        <v>0.0882275103077897</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <f aca="false">CORREL(G3:G102,$GU3:$GU102)</f>
+        <v>0.0534454844625643</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <f aca="false">CORREL(H3:H102,$GU3:$GU102)</f>
+        <v>0.0244144608457564</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <f aca="false">CORREL(I3:I102,$GU3:$GU102)</f>
+        <v>0.00122486572041675</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <f aca="false">CORREL(J3:J102,$GU3:$GU102)</f>
+        <v>-0.0185603700255066</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <f aca="false">CORREL(K3:K102,$GU3:$GU102)</f>
+        <v>-0.0358097103208823</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <f aca="false">CORREL(L3:L102,$GU3:$GU102)</f>
+        <v>-0.0514950642379385</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <f aca="false">CORREL(M3:M102,$GU3:$GU102)</f>
+        <v>-0.0664611895428505</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <f aca="false">CORREL(N3:N102,$GU3:$GU102)</f>
+        <v>-0.0795960110432291</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <f aca="false">CORREL(O3:O102,$GU3:$GU102)</f>
+        <v>-0.0913511948155361</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <f aca="false">CORREL(P3:P102,$GU3:$GU102)</f>
+        <v>-0.102306977088223</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <f aca="false">CORREL(Q3:Q102,$GU3:$GU102)</f>
+        <v>-0.111383158114071</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <f aca="false">CORREL(R3:R102,$GU3:$GU102)</f>
+        <v>-0.118635896287774</v>
+      </c>
+      <c r="S107" s="0" t="n">
+        <f aca="false">CORREL(S3:S102,$GU3:$GU102)</f>
+        <v>-0.123791965662608</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <f aca="false">CORREL(T3:T102,$GU3:$GU102)</f>
+        <v>-0.133441934082488</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <f aca="false">CORREL(U3:U102,$GU3:$GU102)</f>
+        <v>-0.140326371980199</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <f aca="false">CORREL(V3:V102,$GU3:$GU102)</f>
+        <v>-0.144856523665368</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <f aca="false">CORREL(W3:W102,$GU3:$GU102)</f>
+        <v>-0.150055427465131</v>
+      </c>
+      <c r="X107" s="0" t="n">
+        <f aca="false">CORREL(X3:X102,$GU3:$GU102)</f>
+        <v>-0.155035793930928</v>
+      </c>
+      <c r="Y107" s="0" t="n">
+        <f aca="false">CORREL(Y3:Y102,$GU3:$GU102)</f>
+        <v>-0.159144475652463</v>
+      </c>
+      <c r="Z107" s="0" t="n">
+        <f aca="false">CORREL(Z3:Z102,$GU3:$GU102)</f>
+        <v>-0.163021993636421</v>
+      </c>
+      <c r="AA107" s="0" t="n">
+        <f aca="false">CORREL(AA3:AA102,$GU3:$GU102)</f>
+        <v>-0.165359506670772</v>
+      </c>
+      <c r="AB107" s="0" t="n">
+        <f aca="false">CORREL(AB3:AB102,$GU3:$GU102)</f>
+        <v>-0.167758563032119</v>
+      </c>
+      <c r="AC107" s="0" t="n">
+        <f aca="false">CORREL(AC3:AC102,$GU3:$GU102)</f>
+        <v>-0.170274817658083</v>
+      </c>
+      <c r="AD107" s="0" t="n">
+        <f aca="false">CORREL(AD3:AD102,$GU3:$GU102)</f>
+        <v>-0.172096105078534</v>
+      </c>
+      <c r="AE107" s="0" t="n">
+        <f aca="false">CORREL(AE3:AE102,$GU3:$GU102)</f>
+        <v>-0.173417385899515</v>
+      </c>
+      <c r="AF107" s="0" t="n">
+        <f aca="false">CORREL(AF3:AF102,$GU3:$GU102)</f>
+        <v>-0.175234422351311</v>
+      </c>
+      <c r="AG107" s="0" t="n">
+        <f aca="false">CORREL(AG3:AG102,$GU3:$GU102)</f>
+        <v>-0.176796126267975</v>
+      </c>
+      <c r="AH107" s="0" t="n">
+        <f aca="false">CORREL(AH3:AH102,$GU3:$GU102)</f>
+        <v>-0.176849059898646</v>
+      </c>
+      <c r="AI107" s="0" t="n">
+        <f aca="false">CORREL(AI3:AI102,$GU3:$GU102)</f>
+        <v>-0.178292764300027</v>
+      </c>
+      <c r="AJ107" s="0" t="n">
+        <f aca="false">CORREL(AJ3:AJ102,$GU3:$GU102)</f>
+        <v>-0.178955617717848</v>
+      </c>
+      <c r="AK107" s="0" t="n">
+        <f aca="false">CORREL(AK3:AK102,$GU3:$GU102)</f>
+        <v>-0.179005331767537</v>
+      </c>
+      <c r="AL107" s="0" t="n">
+        <f aca="false">CORREL(AL3:AL102,$GU3:$GU102)</f>
+        <v>-0.18040376682814</v>
+      </c>
+      <c r="AM107" s="0" t="n">
+        <f aca="false">CORREL(AM3:AM102,$GU3:$GU102)</f>
+        <v>-0.182906558941285</v>
+      </c>
+      <c r="AN107" s="0" t="n">
+        <f aca="false">CORREL(AN3:AN102,$GU3:$GU102)</f>
+        <v>-0.183511553308799</v>
+      </c>
+      <c r="AO107" s="0" t="n">
+        <f aca="false">CORREL(AO3:AO102,$GU3:$GU102)</f>
+        <v>-0.180099276231002</v>
+      </c>
+      <c r="AP107" s="0" t="n">
+        <f aca="false">CORREL(AP3:AP102,$GU3:$GU102)</f>
+        <v>-0.179749937975587</v>
+      </c>
+      <c r="AQ107" s="0" t="n">
+        <f aca="false">CORREL(AQ3:AQ102,$GU3:$GU102)</f>
+        <v>-0.181033730057274</v>
+      </c>
+      <c r="AR107" s="0" t="n">
+        <f aca="false">CORREL(AR3:AR102,$GU3:$GU102)</f>
+        <v>-0.181405305717185</v>
+      </c>
+      <c r="AS107" s="0" t="n">
+        <f aca="false">CORREL(AS3:AS102,$GU3:$GU102)</f>
+        <v>-0.181140185509535</v>
+      </c>
+      <c r="AT107" s="0" t="n">
+        <f aca="false">CORREL(AT3:AT102,$GU3:$GU102)</f>
+        <v>-0.181677714890803</v>
+      </c>
+      <c r="AU107" s="0" t="n">
+        <f aca="false">CORREL(AU3:AU102,$GU3:$GU102)</f>
+        <v>-0.18185706273861</v>
+      </c>
+      <c r="AV107" s="0" t="n">
+        <f aca="false">CORREL(AV3:AV102,$GU3:$GU102)</f>
+        <v>-0.181114294489818</v>
+      </c>
+      <c r="AW107" s="0" t="n">
+        <f aca="false">CORREL(AW3:AW102,$GU3:$GU102)</f>
+        <v>-0.180249817050166</v>
+      </c>
+      <c r="AX107" s="0" t="n">
+        <f aca="false">CORREL(AX3:AX102,$GU3:$GU102)</f>
+        <v>-0.175684268928469</v>
+      </c>
+      <c r="AY107" s="0" t="n">
+        <f aca="false">CORREL(AY3:AY102,$GU3:$GU102)</f>
+        <v>-0.177066088056648</v>
+      </c>
+      <c r="AZ107" s="0" t="n">
+        <f aca="false">CORREL(AZ3:AZ102,$GU3:$GU102)</f>
+        <v>-0.174037185224124</v>
+      </c>
+      <c r="BA107" s="0" t="n">
+        <f aca="false">CORREL(BA3:BA102,$GU3:$GU102)</f>
+        <v>-0.17588406136562</v>
+      </c>
+      <c r="BB107" s="0" t="n">
+        <f aca="false">CORREL(BB3:BB102,$GU3:$GU102)</f>
+        <v>-0.18017614922283</v>
+      </c>
+      <c r="BC107" s="0" t="n">
+        <f aca="false">CORREL(BC3:BC102,$GU3:$GU102)</f>
+        <v>-0.179624902570515</v>
+      </c>
+      <c r="BD107" s="0" t="n">
+        <f aca="false">CORREL(BD3:BD102,$GU3:$GU102)</f>
+        <v>-0.179394584923766</v>
+      </c>
+      <c r="BE107" s="0" t="n">
+        <f aca="false">CORREL(BE3:BE102,$GU3:$GU102)</f>
+        <v>-0.17639344112859</v>
+      </c>
+      <c r="BF107" s="0" t="n">
+        <f aca="false">CORREL(BF3:BF102,$GU3:$GU102)</f>
+        <v>-0.176946233663049</v>
+      </c>
+      <c r="BG107" s="0" t="n">
+        <f aca="false">CORREL(BG3:BG102,$GU3:$GU102)</f>
+        <v>-0.176125155722744</v>
+      </c>
+      <c r="BH107" s="0" t="n">
+        <f aca="false">CORREL(BH3:BH102,$GU3:$GU102)</f>
+        <v>-0.173705970638493</v>
+      </c>
+      <c r="BI107" s="0" t="n">
+        <f aca="false">CORREL(BI3:BI102,$GU3:$GU102)</f>
+        <v>-0.173023791680058</v>
+      </c>
+      <c r="BJ107" s="0" t="n">
+        <f aca="false">CORREL(BJ3:BJ102,$GU3:$GU102)</f>
+        <v>-0.17331458324339</v>
+      </c>
+      <c r="BK107" s="0" t="n">
+        <f aca="false">CORREL(BK3:BK102,$GU3:$GU102)</f>
+        <v>-0.171007338960013</v>
+      </c>
+      <c r="BL107" s="0" t="n">
+        <f aca="false">CORREL(BL3:BL102,$GU3:$GU102)</f>
+        <v>-0.171728951879635</v>
+      </c>
+      <c r="BM107" s="0" t="n">
+        <f aca="false">CORREL(BM3:BM102,$GU3:$GU102)</f>
+        <v>-0.170427707457079</v>
+      </c>
+      <c r="BN107" s="0" t="n">
+        <f aca="false">CORREL(BN3:BN102,$GU3:$GU102)</f>
+        <v>-0.167924901349523</v>
+      </c>
+      <c r="BO107" s="0" t="n">
+        <f aca="false">CORREL(BO3:BO102,$GU3:$GU102)</f>
+        <v>-0.167007103861835</v>
+      </c>
+      <c r="BP107" s="0" t="n">
+        <f aca="false">CORREL(BP3:BP102,$GU3:$GU102)</f>
+        <v>-0.164875305869508</v>
+      </c>
+      <c r="BQ107" s="0" t="n">
+        <f aca="false">CORREL(BQ3:BQ102,$GU3:$GU102)</f>
+        <v>-0.162267540778092</v>
+      </c>
+      <c r="BR107" s="0" t="n">
+        <f aca="false">CORREL(BR3:BR102,$GU3:$GU102)</f>
+        <v>-0.162263942296159</v>
+      </c>
+      <c r="BS107" s="0" t="n">
+        <f aca="false">CORREL(BS3:BS102,$GU3:$GU102)</f>
+        <v>-0.158067734224868</v>
+      </c>
+      <c r="BT107" s="0" t="n">
+        <f aca="false">CORREL(BT3:BT102,$GU3:$GU102)</f>
+        <v>-0.154468096993061</v>
+      </c>
+      <c r="BU107" s="0" t="n">
+        <f aca="false">CORREL(BU3:BU102,$GU3:$GU102)</f>
+        <v>-0.153146625662163</v>
+      </c>
+      <c r="BV107" s="0" t="n">
+        <f aca="false">CORREL(BV3:BV102,$GU3:$GU102)</f>
+        <v>-0.150714611603866</v>
+      </c>
+      <c r="BW107" s="0" t="n">
+        <f aca="false">CORREL(BW3:BW102,$GU3:$GU102)</f>
+        <v>-0.153595441949366</v>
+      </c>
+      <c r="BX107" s="0" t="n">
+        <f aca="false">CORREL(BX3:BX102,$GU3:$GU102)</f>
+        <v>-0.155205298087469</v>
+      </c>
+      <c r="BY107" s="0" t="n">
+        <f aca="false">CORREL(BY3:BY102,$GU3:$GU102)</f>
+        <v>-0.149735324579928</v>
+      </c>
+      <c r="BZ107" s="0" t="n">
+        <f aca="false">CORREL(BZ3:BZ102,$GU3:$GU102)</f>
+        <v>-0.158308820405628</v>
+      </c>
+      <c r="CA107" s="0" t="n">
+        <f aca="false">CORREL(CA3:CA102,$GU3:$GU102)</f>
+        <v>-0.154943643762169</v>
+      </c>
+      <c r="CB107" s="0" t="n">
+        <f aca="false">CORREL(CB3:CB102,$GU3:$GU102)</f>
+        <v>-0.15448689706646</v>
+      </c>
+      <c r="CC107" s="0" t="n">
+        <f aca="false">CORREL(CC3:CC102,$GU3:$GU102)</f>
+        <v>-0.153885013684402</v>
+      </c>
+      <c r="CD107" s="0" t="n">
+        <f aca="false">CORREL(CD3:CD102,$GU3:$GU102)</f>
+        <v>-0.155146625954997</v>
+      </c>
+      <c r="CE107" s="0" t="n">
+        <f aca="false">CORREL(CE3:CE102,$GU3:$GU102)</f>
+        <v>-0.156746128900917</v>
+      </c>
+      <c r="CF107" s="0" t="n">
+        <f aca="false">CORREL(CF3:CF102,$GU3:$GU102)</f>
+        <v>-0.148583386920466</v>
+      </c>
+      <c r="CG107" s="0" t="n">
+        <f aca="false">CORREL(CG3:CG102,$GU3:$GU102)</f>
+        <v>-0.15047489971121</v>
+      </c>
+      <c r="CH107" s="0" t="n">
+        <f aca="false">CORREL(CH3:CH102,$GU3:$GU102)</f>
+        <v>-0.148674367348548</v>
+      </c>
+      <c r="CI107" s="0" t="n">
+        <f aca="false">CORREL(CI3:CI102,$GU3:$GU102)</f>
+        <v>-0.146545585277995</v>
+      </c>
+      <c r="CJ107" s="0" t="n">
+        <f aca="false">CORREL(CJ3:CJ102,$GU3:$GU102)</f>
+        <v>-0.147479759899115</v>
+      </c>
+      <c r="CK107" s="0" t="n">
+        <f aca="false">CORREL(CK3:CK102,$GU3:$GU102)</f>
+        <v>-0.145968648331051</v>
+      </c>
+      <c r="CL107" s="0" t="n">
+        <f aca="false">CORREL(CL3:CL102,$GU3:$GU102)</f>
+        <v>-0.145498750297246</v>
+      </c>
+      <c r="CM107" s="0" t="n">
+        <f aca="false">CORREL(CM3:CM102,$GU3:$GU102)</f>
+        <v>-0.141446219261258</v>
+      </c>
+      <c r="CN107" s="0" t="n">
+        <f aca="false">CORREL(CN3:CN102,$GU3:$GU102)</f>
+        <v>-0.137255741588062</v>
+      </c>
+      <c r="CO107" s="0" t="n">
+        <f aca="false">CORREL(CO3:CO102,$GU3:$GU102)</f>
+        <v>-0.137199955213435</v>
+      </c>
+      <c r="CP107" s="0" t="n">
+        <f aca="false">CORREL(CP3:CP102,$GU3:$GU102)</f>
+        <v>-0.140043649361528</v>
+      </c>
+      <c r="CQ107" s="0" t="n">
+        <f aca="false">CORREL(CQ3:CQ102,$GU3:$GU102)</f>
+        <v>-0.141045798678578</v>
+      </c>
+      <c r="CR107" s="0" t="n">
+        <f aca="false">CORREL(CR3:CR102,$GU3:$GU102)</f>
+        <v>-0.130167067253683</v>
+      </c>
+      <c r="CS107" s="0" t="n">
+        <f aca="false">CORREL(CS3:CS102,$GU3:$GU102)</f>
+        <v>-0.0972356691976211</v>
+      </c>
+      <c r="CT107" s="0" t="n">
+        <f aca="false">CORREL(CT3:CT102,$GU3:$GU102)</f>
+        <v>-0.127440581278926</v>
+      </c>
+      <c r="CU107" s="0" t="n">
+        <f aca="false">CORREL(CU3:CU102,$GU3:$GU102)</f>
+        <v>-0.125678246086145</v>
+      </c>
+      <c r="CV107" s="0" t="n">
+        <f aca="false">CORREL(CV3:CV102,$GU3:$GU102)</f>
+        <v>-0.134848216492244</v>
+      </c>
+      <c r="CW107" s="0" t="n">
+        <f aca="false">CORREL(CW3:CW102,$GU3:$GU102)</f>
+        <v>-0.13157894151645</v>
+      </c>
+      <c r="CX107" s="0" t="n">
+        <f aca="false">CORREL(CX3:CX102,$GU3:$GU102)</f>
+        <v>-0.131888638513511</v>
+      </c>
+      <c r="CY107" s="0" t="n">
+        <f aca="false">CORREL(CY3:CY102,$GU3:$GU102)</f>
+        <v>-0.05674841735822</v>
+      </c>
+      <c r="CZ107" s="0" t="n">
+        <f aca="false">CORREL(CZ3:CZ102,$GU3:$GU102)</f>
+        <v>0.189278301683413</v>
+      </c>
+      <c r="DA107" s="0" t="n">
+        <f aca="false">CORREL(DA3:DA102,$GU3:$GU102)</f>
+        <v>0.178122520300312</v>
+      </c>
+      <c r="DB107" s="0" t="n">
+        <f aca="false">CORREL(DB3:DB102,$GU3:$GU102)</f>
+        <v>0.160453247602068</v>
+      </c>
+      <c r="DC107" s="0" t="n">
+        <f aca="false">CORREL(DC3:DC102,$GU3:$GU102)</f>
+        <v>0.140272720615523</v>
+      </c>
+      <c r="DD107" s="0" t="n">
+        <f aca="false">CORREL(DD3:DD102,$GU3:$GU102)</f>
+        <v>0.118533493487815</v>
+      </c>
+      <c r="DE107" s="0" t="n">
+        <f aca="false">CORREL(DE3:DE102,$GU3:$GU102)</f>
+        <v>0.102090713344224</v>
+      </c>
+      <c r="DF107" s="0" t="n">
+        <f aca="false">CORREL(DF3:DF102,$GU3:$GU102)</f>
+        <v>0.0905526814344432</v>
+      </c>
+      <c r="DG107" s="0" t="n">
+        <f aca="false">CORREL(DG3:DG102,$GU3:$GU102)</f>
+        <v>0.0834814655252216</v>
+      </c>
+      <c r="DH107" s="0" t="n">
+        <f aca="false">CORREL(DH3:DH102,$GU3:$GU102)</f>
+        <v>0.0789567206438701</v>
+      </c>
+      <c r="DI107" s="0" t="n">
+        <f aca="false">CORREL(DI3:DI102,$GU3:$GU102)</f>
+        <v>0.0764477896661011</v>
+      </c>
+      <c r="DJ107" s="0" t="n">
+        <f aca="false">CORREL(DJ3:DJ102,$GU3:$GU102)</f>
+        <v>0.0748252095618873</v>
+      </c>
+      <c r="DK107" s="0" t="n">
+        <f aca="false">CORREL(DK3:DK102,$GU3:$GU102)</f>
+        <v>0.0752891544991171</v>
+      </c>
+      <c r="DL107" s="0" t="n">
+        <f aca="false">CORREL(DL3:DL102,$GU3:$GU102)</f>
+        <v>0.0769047178626972</v>
+      </c>
+      <c r="DM107" s="0" t="n">
+        <f aca="false">CORREL(DM3:DM102,$GU3:$GU102)</f>
+        <v>0.0806805361044201</v>
+      </c>
+      <c r="DN107" s="0" t="n">
+        <f aca="false">CORREL(DN3:DN102,$GU3:$GU102)</f>
+        <v>0.0881848076282115</v>
+      </c>
+      <c r="DO107" s="0" t="n">
+        <f aca="false">CORREL(DO3:DO102,$GU3:$GU102)</f>
+        <v>0.100917710259133</v>
+      </c>
+      <c r="DP107" s="0" t="n">
+        <f aca="false">CORREL(DP3:DP102,$GU3:$GU102)</f>
+        <v>0.116579756336043</v>
+      </c>
+      <c r="DQ107" s="0" t="n">
+        <f aca="false">CORREL(DQ3:DQ102,$GU3:$GU102)</f>
+        <v>0.11668555270173</v>
+      </c>
+      <c r="DR107" s="0" t="n">
+        <f aca="false">CORREL(DR3:DR102,$GU3:$GU102)</f>
+        <v>0.124588059536482</v>
+      </c>
+      <c r="DS107" s="0" t="n">
+        <f aca="false">CORREL(DS3:DS102,$GU3:$GU102)</f>
+        <v>0.136799376020043</v>
+      </c>
+      <c r="DT107" s="0" t="n">
+        <f aca="false">CORREL(DT3:DT102,$GU3:$GU102)</f>
+        <v>0.149796536939843</v>
+      </c>
+      <c r="DU107" s="0" t="n">
+        <f aca="false">CORREL(DU3:DU102,$GU3:$GU102)</f>
+        <v>0.15604696379401</v>
+      </c>
+      <c r="DV107" s="0" t="n">
+        <f aca="false">CORREL(DV3:DV102,$GU3:$GU102)</f>
+        <v>0.170469735601029</v>
+      </c>
+      <c r="DW107" s="0" t="n">
+        <f aca="false">CORREL(DW3:DW102,$GU3:$GU102)</f>
+        <v>0.17996772288651</v>
+      </c>
+      <c r="DX107" s="0" t="n">
+        <f aca="false">CORREL(DX3:DX102,$GU3:$GU102)</f>
+        <v>0.197691167973429</v>
+      </c>
+      <c r="DY107" s="0" t="n">
+        <f aca="false">CORREL(DY3:DY102,$GU3:$GU102)</f>
+        <v>0.209383229887886</v>
+      </c>
+      <c r="DZ107" s="0" t="n">
+        <f aca="false">CORREL(DZ3:DZ102,$GU3:$GU102)</f>
+        <v>0.216805952868873</v>
+      </c>
+      <c r="EA107" s="0" t="n">
+        <f aca="false">CORREL(EA3:EA102,$GU3:$GU102)</f>
+        <v>0.230907035594589</v>
+      </c>
+      <c r="EB107" s="0" t="n">
+        <f aca="false">CORREL(EB3:EB102,$GU3:$GU102)</f>
+        <v>0.248115412708843</v>
+      </c>
+      <c r="EC107" s="0" t="n">
+        <f aca="false">CORREL(EC3:EC102,$GU3:$GU102)</f>
+        <v>0.264702378016334</v>
+      </c>
+      <c r="ED107" s="0" t="n">
+        <f aca="false">CORREL(ED3:ED102,$GU3:$GU102)</f>
+        <v>0.281983684474137</v>
+      </c>
+      <c r="EE107" s="0" t="n">
+        <f aca="false">CORREL(EE3:EE102,$GU3:$GU102)</f>
+        <v>0.301335611973681</v>
+      </c>
+      <c r="EF107" s="0" t="n">
+        <f aca="false">CORREL(EF3:EF102,$GU3:$GU102)</f>
+        <v>0.318057272701369</v>
+      </c>
+      <c r="EG107" s="0" t="n">
+        <f aca="false">CORREL(EG3:EG102,$GU3:$GU102)</f>
+        <v>0.334456737584495</v>
+      </c>
+      <c r="EH107" s="0" t="n">
+        <f aca="false">CORREL(EH3:EH102,$GU3:$GU102)</f>
+        <v>0.356461043381089</v>
+      </c>
+      <c r="EI107" s="0" t="n">
+        <f aca="false">CORREL(EI3:EI102,$GU3:$GU102)</f>
+        <v>0.370276528046272</v>
+      </c>
+      <c r="EJ107" s="0" t="n">
+        <f aca="false">CORREL(EJ3:EJ102,$GU3:$GU102)</f>
+        <v>0.376854639471619</v>
+      </c>
+      <c r="EK107" s="0" t="n">
+        <f aca="false">CORREL(EK3:EK102,$GU3:$GU102)</f>
+        <v>0.394437052953251</v>
+      </c>
+      <c r="EL107" s="0" t="n">
+        <f aca="false">CORREL(EL3:EL102,$GU3:$GU102)</f>
+        <v>0.424242366529694</v>
+      </c>
+      <c r="EM107" s="0" t="n">
+        <f aca="false">CORREL(EM3:EM102,$GU3:$GU102)</f>
+        <v>0.446121905005084</v>
+      </c>
+      <c r="EN107" s="0" t="n">
+        <f aca="false">CORREL(EN3:EN102,$GU3:$GU102)</f>
+        <v>0.455280249025028</v>
+      </c>
+      <c r="EO107" s="0" t="n">
+        <f aca="false">CORREL(EO3:EO102,$GU3:$GU102)</f>
+        <v>0.471100096228392</v>
+      </c>
+      <c r="EP107" s="0" t="n">
+        <f aca="false">CORREL(EP3:EP102,$GU3:$GU102)</f>
+        <v>0.485059244468758</v>
+      </c>
+      <c r="EQ107" s="0" t="n">
+        <f aca="false">CORREL(EQ3:EQ102,$GU3:$GU102)</f>
+        <v>0.505501657088217</v>
+      </c>
+      <c r="ER107" s="0" t="n">
+        <f aca="false">CORREL(ER3:ER102,$GU3:$GU102)</f>
+        <v>0.522683947897662</v>
+      </c>
+      <c r="ES107" s="0" t="n">
+        <f aca="false">CORREL(ES3:ES102,$GU3:$GU102)</f>
+        <v>0.548840266126852</v>
+      </c>
+      <c r="ET107" s="0" t="n">
+        <f aca="false">CORREL(ET3:ET102,$GU3:$GU102)</f>
+        <v>0.570667897935743</v>
+      </c>
+      <c r="EU107" s="0" t="n">
+        <f aca="false">CORREL(EU3:EU102,$GU3:$GU102)</f>
+        <v>0.598555291703193</v>
+      </c>
+      <c r="EV107" s="0" t="n">
+        <f aca="false">CORREL(EV3:EV102,$GU3:$GU102)</f>
+        <v>0.614595530792423</v>
+      </c>
+      <c r="EW107" s="0" t="n">
+        <f aca="false">CORREL(EW3:EW102,$GU3:$GU102)</f>
+        <v>0.643931562676689</v>
+      </c>
+      <c r="EX107" s="0" t="n">
+        <f aca="false">CORREL(EX3:EX102,$GU3:$GU102)</f>
+        <v>0.66746457278173</v>
+      </c>
+      <c r="EY107" s="0" t="n">
+        <f aca="false">CORREL(EY3:EY102,$GU3:$GU102)</f>
+        <v>0.665433743543325</v>
+      </c>
+      <c r="EZ107" s="0" t="n">
+        <f aca="false">CORREL(EZ3:EZ102,$GU3:$GU102)</f>
+        <v>0.689541662141921</v>
+      </c>
+      <c r="FA107" s="0" t="n">
+        <f aca="false">CORREL(FA3:FA102,$GU3:$GU102)</f>
+        <v>0.708216799825614</v>
+      </c>
+      <c r="FB107" s="0" t="n">
+        <f aca="false">CORREL(FB3:FB102,$GU3:$GU102)</f>
+        <v>0.729066033464639</v>
+      </c>
+      <c r="FC107" s="0" t="n">
+        <f aca="false">CORREL(FC3:FC102,$GU3:$GU102)</f>
+        <v>0.745887311217472</v>
+      </c>
+      <c r="FD107" s="0" t="n">
+        <f aca="false">CORREL(FD3:FD102,$GU3:$GU102)</f>
+        <v>0.756608100312443</v>
+      </c>
+      <c r="FE107" s="0" t="n">
+        <f aca="false">CORREL(FE3:FE102,$GU3:$GU102)</f>
+        <v>0.776950481120096</v>
+      </c>
+      <c r="FF107" s="0" t="n">
+        <f aca="false">CORREL(FF3:FF102,$GU3:$GU102)</f>
+        <v>0.789436964602255</v>
+      </c>
+      <c r="FG107" s="0" t="n">
+        <f aca="false">CORREL(FG3:FG102,$GU3:$GU102)</f>
+        <v>0.79791976650903</v>
+      </c>
+      <c r="FH107" s="0" t="n">
+        <f aca="false">CORREL(FH3:FH102,$GU3:$GU102)</f>
+        <v>0.808165635461389</v>
+      </c>
+      <c r="FI107" s="0" t="n">
+        <f aca="false">CORREL(FI3:FI102,$GU3:$GU102)</f>
+        <v>0.822450446627461</v>
+      </c>
+      <c r="FJ107" s="0" t="n">
+        <f aca="false">CORREL(FJ3:FJ102,$GU3:$GU102)</f>
+        <v>0.831904874585102</v>
+      </c>
+      <c r="FK107" s="0" t="n">
+        <f aca="false">CORREL(FK3:FK102,$GU3:$GU102)</f>
+        <v>0.846467749591187</v>
+      </c>
+      <c r="FL107" s="0" t="n">
+        <f aca="false">CORREL(FL3:FL102,$GU3:$GU102)</f>
+        <v>0.854253153659997</v>
+      </c>
+      <c r="FM107" s="0" t="n">
+        <f aca="false">CORREL(FM3:FM102,$GU3:$GU102)</f>
+        <v>0.866594883174221</v>
+      </c>
+      <c r="FN107" s="0" t="n">
+        <f aca="false">CORREL(FN3:FN102,$GU3:$GU102)</f>
+        <v>0.875887366376331</v>
+      </c>
+      <c r="FO107" s="0" t="n">
+        <f aca="false">CORREL(FO3:FO102,$GU3:$GU102)</f>
+        <v>0.883074778563183</v>
+      </c>
+      <c r="FP107" s="0" t="n">
+        <f aca="false">CORREL(FP3:FP102,$GU3:$GU102)</f>
+        <v>0.895374994827245</v>
+      </c>
+      <c r="FQ107" s="0" t="n">
+        <f aca="false">CORREL(FQ3:FQ102,$GU3:$GU102)</f>
+        <v>0.911064607837735</v>
+      </c>
+      <c r="FR107" s="0" t="n">
+        <f aca="false">CORREL(FR3:FR102,$GU3:$GU102)</f>
+        <v>0.916145425585563</v>
+      </c>
+      <c r="FS107" s="0" t="n">
+        <f aca="false">CORREL(FS3:FS102,$GU3:$GU102)</f>
+        <v>0.918791161378076</v>
+      </c>
+      <c r="FT107" s="0" t="n">
+        <f aca="false">CORREL(FT3:FT102,$GU3:$GU102)</f>
+        <v>0.924783243809182</v>
+      </c>
+      <c r="FU107" s="0" t="n">
+        <f aca="false">CORREL(FU3:FU102,$GU3:$GU102)</f>
+        <v>0.931040625126569</v>
+      </c>
+      <c r="FV107" s="0" t="n">
+        <f aca="false">CORREL(FV3:FV102,$GU3:$GU102)</f>
+        <v>0.936777967102603</v>
+      </c>
+      <c r="FW107" s="0" t="n">
+        <f aca="false">CORREL(FW3:FW102,$GU3:$GU102)</f>
+        <v>0.934450371332195</v>
+      </c>
+      <c r="FX107" s="0" t="n">
+        <f aca="false">CORREL(FX3:FX102,$GU3:$GU102)</f>
+        <v>0.943495402201485</v>
+      </c>
+      <c r="FY107" s="0" t="n">
+        <f aca="false">CORREL(FY3:FY102,$GU3:$GU102)</f>
+        <v>0.945692233979944</v>
+      </c>
+      <c r="FZ107" s="0" t="n">
+        <f aca="false">CORREL(FZ3:FZ102,$GU3:$GU102)</f>
+        <v>0.947444649560775</v>
+      </c>
+      <c r="GA107" s="0" t="n">
+        <f aca="false">CORREL(GA3:GA102,$GU3:$GU102)</f>
+        <v>0.954356837868924</v>
+      </c>
+      <c r="GB107" s="0" t="n">
+        <f aca="false">CORREL(GB3:GB102,$GU3:$GU102)</f>
+        <v>0.956646056444564</v>
+      </c>
+      <c r="GC107" s="0" t="n">
+        <f aca="false">CORREL(GC3:GC102,$GU3:$GU102)</f>
+        <v>0.96100980762636</v>
+      </c>
+      <c r="GD107" s="0" t="n">
+        <f aca="false">CORREL(GD3:GD102,$GU3:$GU102)</f>
+        <v>0.966585950117236</v>
+      </c>
+      <c r="GE107" s="0" t="n">
+        <f aca="false">CORREL(GE3:GE102,$GU3:$GU102)</f>
+        <v>0.972611911387816</v>
+      </c>
+      <c r="GF107" s="0" t="n">
+        <f aca="false">CORREL(GF3:GF102,$GU3:$GU102)</f>
+        <v>0.97252089707039</v>
+      </c>
+      <c r="GG107" s="0" t="n">
+        <f aca="false">CORREL(GG3:GG102,$GU3:$GU102)</f>
+        <v>0.977910617238211</v>
+      </c>
+      <c r="GH107" s="0" t="n">
+        <f aca="false">CORREL(GH3:GH102,$GU3:$GU102)</f>
+        <v>0.976548122270138</v>
+      </c>
+      <c r="GI107" s="0" t="n">
+        <f aca="false">CORREL(GI3:GI102,$GU3:$GU102)</f>
+        <v>0.981878762012406</v>
+      </c>
+      <c r="GJ107" s="0" t="n">
+        <f aca="false">CORREL(GJ3:GJ102,$GU3:$GU102)</f>
+        <v>0.979636546792547</v>
+      </c>
+      <c r="GK107" s="0" t="n">
+        <f aca="false">CORREL(GK3:GK102,$GU3:$GU102)</f>
+        <v>0.983325498186483</v>
+      </c>
+      <c r="GL107" s="0" t="n">
+        <f aca="false">CORREL(GL3:GL102,$GU3:$GU102)</f>
+        <v>0.984012906043398</v>
+      </c>
+      <c r="GM107" s="0" t="n">
+        <f aca="false">CORREL(GM3:GM102,$GU3:$GU102)</f>
+        <v>0.977630580138304</v>
+      </c>
+      <c r="GN107" s="0" t="n">
+        <f aca="false">CORREL(GN3:GN102,$GU3:$GU102)</f>
+        <v>0.989835045164789</v>
+      </c>
+      <c r="GO107" s="0" t="n">
+        <f aca="false">CORREL(GO3:GO102,$GU3:$GU102)</f>
+        <v>0.992949672164075</v>
+      </c>
+      <c r="GP107" s="0" t="n">
+        <f aca="false">CORREL(GP3:GP102,$GU3:$GU102)</f>
+        <v>0.984086950753953</v>
+      </c>
+      <c r="GQ107" s="0" t="n">
+        <f aca="false">CORREL(GQ3:GQ102,$GU3:$GU102)</f>
+        <v>0.997421666732621</v>
+      </c>
+      <c r="GR107" s="0" t="n">
+        <f aca="false">CORREL(GR3:GR102,$GU3:$GU102)</f>
+        <v>0.997014912506796</v>
+      </c>
+      <c r="GS107" s="0" t="n">
+        <f aca="false">CORREL(GS3:GS102,$GU3:$GU102)</f>
+        <v>0.99844964685333</v>
+      </c>
+      <c r="GT107" s="0" t="n">
+        <f aca="false">CORREL(GT3:GT102,$GU3:$GU102)</f>
+        <v>0.996791014927858</v>
+      </c>
+      <c r="GU107" s="0" t="n">
+        <f aca="false">CORREL(GU3:GU102,$GU3:$GU102)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <f aca="false">CORREL(B3:B102, CY3:CY102)</f>
+        <v>0.999759444687559</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <f aca="false">CORREL(C3:C102, CZ3:CZ102)</f>
+        <v>0.998964336681445</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <f aca="false">CORREL(D3:D102, DA3:DA102)</f>
+        <v>0.998252854398342</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">CORREL(E3:E102, DB3:DB102)</f>
+        <v>0.997102948919797</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <f aca="false">CORREL(F3:F102, DC3:DC102)</f>
+        <v>0.995514850654948</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <f aca="false">CORREL(G3:G102, DD3:DD102)</f>
+        <v>0.993768943691578</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <f aca="false">CORREL(H3:H102, DE3:DE102)</f>
+        <v>0.991911411319245</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <f aca="false">CORREL(I3:I102, DF3:DF102)</f>
+        <v>0.989871142088003</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <f aca="false">CORREL(J3:J102, DG3:DG102)</f>
+        <v>0.987353940010228</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <f aca="false">CORREL(K3:K102, DH3:DH102)</f>
+        <v>0.984146659971211</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <f aca="false">CORREL(L3:L102, DI3:DI102)</f>
+        <v>0.980547581404397</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <f aca="false">CORREL(M3:M102, DJ3:DJ102)</f>
+        <v>0.97610916150283</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <f aca="false">CORREL(N3:N102, DK3:DK102)</f>
+        <v>0.970799335885965</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <f aca="false">CORREL(O3:O102, DL3:DL102)</f>
+        <v>0.965166152308994</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <f aca="false">CORREL(P3:P102, DM3:DM102)</f>
+        <v>0.958074214315404</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <f aca="false">CORREL(Q3:Q102, DN3:DN102)</f>
+        <v>0.948565539328098</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <f aca="false">CORREL(R3:R102, DO3:DO102)</f>
+        <v>0.933684285116029</v>
+      </c>
+      <c r="S109" s="0" t="n">
+        <f aca="false">CORREL(S3:S102, DP3:DP102)</f>
+        <v>0.916340113397615</v>
+      </c>
+      <c r="T109" s="0" t="n">
+        <f aca="false">CORREL(T3:T102, DQ3:DQ102)</f>
+        <v>0.915549914102107</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <f aca="false">CORREL(U3:U102, DR3:DR102)</f>
+        <v>0.90561344367966</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <f aca="false">CORREL(V3:V102, DS3:DS102)</f>
+        <v>0.892949068777282</v>
+      </c>
+      <c r="W109" s="0" t="n">
+        <f aca="false">CORREL(W3:W102, DT3:DT102)</f>
+        <v>0.876753257061608</v>
+      </c>
+      <c r="X109" s="0" t="n">
+        <f aca="false">CORREL(X3:X102, DU3:DU102)</f>
+        <v>0.874309532730997</v>
+      </c>
+      <c r="Y109" s="0" t="n">
+        <f aca="false">CORREL(Y3:Y102, DV3:DV102)</f>
+        <v>0.858639877716707</v>
+      </c>
+      <c r="Z109" s="0" t="n">
+        <f aca="false">CORREL(Z3:Z102, DW3:DW102)</f>
+        <v>0.853575720787795</v>
+      </c>
+      <c r="AA109" s="0" t="n">
+        <f aca="false">CORREL(AA3:AA102, DX3:DX102)</f>
+        <v>0.834519677005537</v>
+      </c>
+      <c r="AB109" s="0" t="n">
+        <f aca="false">CORREL(AB3:AB102, DY3:DY102)</f>
+        <v>0.831011237572703</v>
+      </c>
+      <c r="AC109" s="0" t="n">
+        <f aca="false">CORREL(AC3:AC102, DZ3:DZ102)</f>
+        <v>0.834021035406152</v>
+      </c>
+      <c r="AD109" s="0" t="n">
+        <f aca="false">CORREL(AD3:AD102, EA3:EA102)</f>
+        <v>0.824455710006505</v>
+      </c>
+      <c r="AE109" s="0" t="n">
+        <f aca="false">CORREL(AE3:AE102, EB3:EB102)</f>
+        <v>0.813217145776936</v>
+      </c>
+      <c r="AF109" s="0" t="n">
+        <f aca="false">CORREL(AF3:AF102, EC3:EC102)</f>
+        <v>0.801512326623737</v>
+      </c>
+      <c r="AG109" s="0" t="n">
+        <f aca="false">CORREL(AG3:AG102, ED3:ED102)</f>
+        <v>0.787999275710246</v>
+      </c>
+      <c r="AH109" s="0" t="n">
+        <f aca="false">CORREL(AH3:AH102, EE3:EE102)</f>
+        <v>0.775559830689693</v>
+      </c>
+      <c r="AI109" s="0" t="n">
+        <f aca="false">CORREL(AI3:AI102, EF3:EF102)</f>
+        <v>0.766390622564528</v>
+      </c>
+      <c r="AJ109" s="0" t="n">
+        <f aca="false">CORREL(AJ3:AJ102, EG3:EG102)</f>
+        <v>0.75821337137002</v>
+      </c>
+      <c r="AK109" s="0" t="n">
+        <f aca="false">CORREL(AK3:AK102, EH3:EH102)</f>
+        <v>0.737216166142527</v>
+      </c>
+      <c r="AL109" s="0" t="n">
+        <f aca="false">CORREL(AL3:AL102, EI3:EI102)</f>
+        <v>0.727851030035145</v>
+      </c>
+      <c r="AM109" s="0" t="n">
+        <f aca="false">CORREL(AM3:AM102, EJ3:EJ102)</f>
+        <v>0.727051122197299</v>
+      </c>
+      <c r="AN109" s="0" t="n">
+        <f aca="false">CORREL(AN3:AN102, EK3:EK102)</f>
+        <v>0.71548792744128</v>
+      </c>
+      <c r="AO109" s="0" t="n">
+        <f aca="false">CORREL(AO3:AO102, EL3:EL102)</f>
+        <v>0.687501249006894</v>
+      </c>
+      <c r="AP109" s="0" t="n">
+        <f aca="false">CORREL(AP3:AP102, EM3:EM102)</f>
+        <v>0.66553527624343</v>
+      </c>
+      <c r="AQ109" s="0" t="n">
+        <f aca="false">CORREL(AQ3:AQ102, EN3:EN102)</f>
+        <v>0.662064871464602</v>
+      </c>
+      <c r="AR109" s="0" t="n">
+        <f aca="false">CORREL(AR3:AR102, EO3:EO102)</f>
+        <v>0.650661593285876</v>
+      </c>
+      <c r="AS109" s="0" t="n">
+        <f aca="false">CORREL(AS3:AS102, EP3:EP102)</f>
+        <v>0.643028355775556</v>
+      </c>
+      <c r="AT109" s="0" t="n">
+        <f aca="false">CORREL(AT3:AT102, EQ3:EQ102)</f>
+        <v>0.633591746676007</v>
+      </c>
+      <c r="AU109" s="0" t="n">
+        <f aca="false">CORREL(AU3:AU102, ER3:ER102)</f>
+        <v>0.625299310542209</v>
+      </c>
+      <c r="AV109" s="0" t="n">
+        <f aca="false">CORREL(AV3:AV102, ES3:ES102)</f>
+        <v>0.602047878948956</v>
+      </c>
+      <c r="AW109" s="0" t="n">
+        <f aca="false">CORREL(AW3:AW102, ET3:ET102)</f>
+        <v>0.583879081696513</v>
+      </c>
+      <c r="AX109" s="0" t="n">
+        <f aca="false">CORREL(AX3:AX102, EU3:EU102)</f>
+        <v>0.548990042337147</v>
+      </c>
+      <c r="AY109" s="0" t="n">
+        <f aca="false">CORREL(AY3:AY102, EV3:EV102)</f>
+        <v>0.53493915400717</v>
+      </c>
+      <c r="AZ109" s="0" t="n">
+        <f aca="false">CORREL(AZ3:AZ102, EW3:EW102)</f>
+        <v>0.500366913277418</v>
+      </c>
+      <c r="BA109" s="0" t="n">
+        <f aca="false">CORREL(BA3:BA102, EX3:EX102)</f>
+        <v>0.485216833409642</v>
+      </c>
+      <c r="BB109" s="0" t="n">
+        <f aca="false">CORREL(BB3:BB102, EY3:EY102)</f>
+        <v>0.49386653264657</v>
+      </c>
+      <c r="BC109" s="0" t="n">
+        <f aca="false">CORREL(BC3:BC102, EZ3:EZ102)</f>
+        <v>0.470508636940924</v>
+      </c>
+      <c r="BD109" s="0" t="n">
+        <f aca="false">CORREL(BD3:BD102, FA3:FA102)</f>
+        <v>0.451212028691197</v>
+      </c>
+      <c r="BE109" s="0" t="n">
+        <f aca="false">CORREL(BE3:BE102, FB3:FB102)</f>
+        <v>0.425022815584774</v>
+      </c>
+      <c r="BF109" s="0" t="n">
+        <f aca="false">CORREL(BF3:BF102, FC3:FC102)</f>
+        <v>0.41209781501021</v>
+      </c>
+      <c r="BG109" s="0" t="n">
+        <f aca="false">CORREL(BG3:BG102, FD3:FD102)</f>
+        <v>0.396765619791419</v>
+      </c>
+      <c r="BH109" s="0" t="n">
+        <f aca="false">CORREL(BH3:BH102, FE3:FE102)</f>
+        <v>0.374803818686629</v>
+      </c>
+      <c r="BI109" s="0" t="n">
+        <f aca="false">CORREL(BI3:BI102, FF3:FF102)</f>
+        <v>0.361674578556163</v>
+      </c>
+      <c r="BJ109" s="0" t="n">
+        <f aca="false">CORREL(BJ3:BJ102, FG3:FG102)</f>
+        <v>0.355418171489695</v>
+      </c>
+      <c r="BK109" s="0" t="n">
+        <f aca="false">CORREL(BK3:BK102, FH3:FH102)</f>
+        <v>0.337772919800819</v>
+      </c>
+      <c r="BL109" s="0" t="n">
+        <f aca="false">CORREL(BL3:BL102, FI3:FI102)</f>
+        <v>0.312355274907205</v>
+      </c>
+      <c r="BM109" s="0" t="n">
+        <f aca="false">CORREL(BM3:BM102, FJ3:FJ102)</f>
+        <v>0.301438097204376</v>
+      </c>
+      <c r="BN109" s="0" t="n">
+        <f aca="false">CORREL(BN3:BN102, FK3:FK102)</f>
+        <v>0.286637227934632</v>
+      </c>
+      <c r="BO109" s="0" t="n">
+        <f aca="false">CORREL(BO3:BO102, FL3:FL102)</f>
+        <v>0.280819913937134</v>
+      </c>
+      <c r="BP109" s="0" t="n">
+        <f aca="false">CORREL(BP3:BP102, FM3:FM102)</f>
+        <v>0.265424289173011</v>
+      </c>
+      <c r="BQ109" s="0" t="n">
+        <f aca="false">CORREL(BQ3:BQ102, FN3:FN102)</f>
+        <v>0.248959340110922</v>
+      </c>
+      <c r="BR109" s="0" t="n">
+        <f aca="false">CORREL(BR3:BR102, FO3:FO102)</f>
+        <v>0.234908783231223</v>
+      </c>
+      <c r="BS109" s="0" t="n">
+        <f aca="false">CORREL(BS3:BS102, FP3:FP102)</f>
+        <v>0.204741889854466</v>
+      </c>
+      <c r="BT109" s="0" t="n">
+        <f aca="false">CORREL(BT3:BT102, FQ3:FQ102)</f>
+        <v>0.180486565185362</v>
+      </c>
+      <c r="BU109" s="0" t="n">
+        <f aca="false">CORREL(BU3:BU102, FR3:FR102)</f>
+        <v>0.177290874726693</v>
+      </c>
+      <c r="BV109" s="0" t="n">
+        <f aca="false">CORREL(BV3:BV102, FS3:FS102)</f>
+        <v>0.173126256278655</v>
+      </c>
+      <c r="BW109" s="0" t="n">
+        <f aca="false">CORREL(BW3:BW102, FT3:FT102)</f>
+        <v>0.156306209419502</v>
+      </c>
+      <c r="BX109" s="0" t="n">
+        <f aca="false">CORREL(BX3:BX102, FU3:FU102)</f>
+        <v>0.145106311533948</v>
+      </c>
+      <c r="BY109" s="0" t="n">
+        <f aca="false">CORREL(BY3:BY102, FV3:FV102)</f>
+        <v>0.12638088152835</v>
+      </c>
+      <c r="BZ109" s="0" t="n">
+        <f aca="false">CORREL(BZ3:BZ102, FW3:FW102)</f>
+        <v>0.121390150475899</v>
+      </c>
+      <c r="CA109" s="0" t="n">
+        <f aca="false">CORREL(CA3:CA102, FX3:FX102)</f>
+        <v>0.0976490814115945</v>
+      </c>
+      <c r="CB109" s="0" t="n">
+        <f aca="false">CORREL(CB3:CB102, FY3:FY102)</f>
+        <v>0.0884441883487513</v>
+      </c>
+      <c r="CC109" s="0" t="n">
+        <f aca="false">CORREL(CC3:CC102, FZ3:FZ102)</f>
+        <v>0.0672249412169848</v>
+      </c>
+      <c r="CD109" s="0" t="n">
+        <f aca="false">CORREL(CD3:CD102, GA3:GA102)</f>
+        <v>0.0696790290394152</v>
+      </c>
+      <c r="CE109" s="0" t="n">
+        <f aca="false">CORREL(CE3:CE102, GB3:GB102)</f>
+        <v>0.0580431263129014</v>
+      </c>
+      <c r="CF109" s="0" t="n">
+        <f aca="false">CORREL(CF3:CF102, GC3:GC102)</f>
+        <v>0.0453097674226707</v>
+      </c>
+      <c r="CG109" s="0" t="n">
+        <f aca="false">CORREL(CG3:CG102, GD3:GD102)</f>
+        <v>0.044034500252774</v>
+      </c>
+      <c r="CH109" s="0" t="n">
+        <f aca="false">CORREL(CH3:CH102, GE3:GE102)</f>
+        <v>0.0246496429731213</v>
+      </c>
+      <c r="CI109" s="0" t="n">
+        <f aca="false">CORREL(CI3:CI102, GF3:GF102)</f>
+        <v>0.00893623618482923</v>
+      </c>
+      <c r="CJ109" s="0" t="n">
+        <f aca="false">CORREL(CJ3:CJ102, GG3:GG102)</f>
+        <v>0.0151385306609807</v>
+      </c>
+      <c r="CK109" s="0" t="n">
+        <f aca="false">CORREL(CK3:CK102, GH3:GH102)</f>
+        <v>-0.000449853394269938</v>
+      </c>
+      <c r="CL109" s="0" t="n">
+        <f aca="false">CORREL(CL3:CL102, GI3:GI102)</f>
+        <v>-0.0177675103672004</v>
+      </c>
+      <c r="CM109" s="0" t="n">
+        <f aca="false">CORREL(CM3:CM102, GJ3:GJ102)</f>
+        <v>-0.0362416430669168</v>
+      </c>
+      <c r="CN109" s="0" t="n">
+        <f aca="false">CORREL(CN3:CN102, GK3:GK102)</f>
+        <v>-0.0354847380905375</v>
+      </c>
+      <c r="CO109" s="0" t="n">
+        <f aca="false">CORREL(CO3:CO102, GL3:GL102)</f>
+        <v>-0.047017695764876</v>
+      </c>
+      <c r="CP109" s="0" t="n">
+        <f aca="false">CORREL(CP3:CP102, GM3:GM102)</f>
+        <v>-0.0629242452507765</v>
+      </c>
+      <c r="CQ109" s="0" t="n">
+        <f aca="false">CORREL(CQ3:CQ102, GN3:GN102)</f>
+        <v>-0.0709666873487976</v>
+      </c>
+      <c r="CR109" s="0" t="n">
+        <f aca="false">CORREL(CR3:CR102, GO3:GO102)</f>
+        <v>-0.0643013440921748</v>
+      </c>
+      <c r="CS109" s="0" t="n">
+        <f aca="false">CORREL(CS3:CS102, GP3:GP102)</f>
+        <v>-0.0327406488631768</v>
+      </c>
+      <c r="CT109" s="0" t="n">
+        <f aca="false">CORREL(CT3:CT102, GQ3:GQ102)</f>
+        <v>-0.0773271954573032</v>
+      </c>
+      <c r="CU109" s="0" t="n">
+        <f aca="false">CORREL(CU3:CU102, GR3:GR102)</f>
+        <v>-0.0828156722495473</v>
+      </c>
+      <c r="CV109" s="0" t="n">
+        <f aca="false">CORREL(CV3:CV102, GS3:GS102)</f>
+        <v>-0.109391921102179</v>
+      </c>
+      <c r="CW109" s="0" t="n">
+        <f aca="false">CORREL(CW3:CW102, GT3:GT102)</f>
+        <v>-0.123453222779587</v>
+      </c>
+      <c r="CX109" s="0" t="n">
+        <f aca="false">CORREL(CX3:CX102, GU3:GU102)</f>
+        <v>-0.131888638513511</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -62763,5 +66794,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>